--- a/Bulk Loads/1424/_PRELIMINARY UTILITY EXPORT - FS_formatted.xlsx
+++ b/Bulk Loads/1424/_PRELIMINARY UTILITY EXPORT - FS_formatted.xlsx
@@ -507,7 +507,7 @@
     <row r="4" ht="27" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>August 01, 2024</t>
+          <t>August 05, 2024</t>
         </is>
       </c>
     </row>

--- a/Bulk Loads/1424/_PRELIMINARY UTILITY EXPORT - FS_formatted.xlsx
+++ b/Bulk Loads/1424/_PRELIMINARY UTILITY EXPORT - FS_formatted.xlsx
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A3:S171"/>
+  <dimension ref="A3:S172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
@@ -507,7 +507,7 @@
     <row r="4" ht="27" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>August 05, 2024</t>
+          <t>August 06, 2024</t>
         </is>
       </c>
     </row>
@@ -1984,7 +1984,7 @@
         <v>3</v>
       </c>
       <c r="F61" s="5" t="n">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="G61" s="6">
         <f>IF(E61&gt;1,(1.732*D61*F61)/1000,(D61*F61)/1000)</f>
@@ -1998,24 +1998,24 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B62" t="n">
         <v>1</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>SIX BURNER RANGE</t>
+          <t>DOUBLE CONVECTION OVEN</t>
         </is>
       </c>
       <c r="D62" t="n">
         <v>208</v>
       </c>
       <c r="E62" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="G62" s="6">
         <f>IF(E62&gt;1,(1.732*D62*F62)/1000,(D62*F62)/1000)</f>
@@ -2023,20 +2023,20 @@
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>MOBILE WITH OVEN</t>
+          <t>MOBILE</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B63" t="n">
         <v>1</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>GRIDDLE</t>
+          <t>SIX BURNER RANGE</t>
         </is>
       </c>
       <c r="D63" t="n">
@@ -2046,7 +2046,7 @@
         <v>3</v>
       </c>
       <c r="F63" s="5" t="n">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="G63" s="6">
         <f>IF(E63&gt;1,(1.732*D63*F63)/1000,(D63*F63)/1000)</f>
@@ -2054,30 +2054,30 @@
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>WITH STAND</t>
+          <t>MOBILE WITH OVEN</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B64" t="n">
         <v>1</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>FIRE SUPPRESSION SYSTEM</t>
+          <t>GRIDDLE</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>120</v>
+        <v>208</v>
       </c>
       <c r="E64" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F64" s="5" t="n">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="G64" s="6">
         <f>IF(E64&gt;1,(1.732*D64*F64)/1000,(D64*F64)/1000)</f>
@@ -2085,20 +2085,20 @@
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>FOR ITEM #48</t>
+          <t>WITH STAND</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>MICROWAVE OVEN</t>
+          <t>FIRE SUPPRESSION SYSTEM</t>
         </is>
       </c>
       <c r="D65" t="n">
@@ -2108,7 +2108,7 @@
         <v>1</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>9.6</v>
+        <v>20</v>
       </c>
       <c r="G65" s="6">
         <f>IF(E65&gt;1,(1.732*D65*F65)/1000,(D65*F65)/1000)</f>
@@ -2116,20 +2116,20 @@
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>UNDERCOUNTER</t>
+          <t>FOR ITEM #48</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>MOBILE WORK TABLE</t>
+          <t>MICROWAVE OVEN</t>
         </is>
       </c>
       <c r="D66" t="n">
@@ -2139,7 +2139,7 @@
         <v>1</v>
       </c>
       <c r="F66" s="5" t="n">
-        <v>20</v>
+        <v>9.6</v>
       </c>
       <c r="G66" s="6">
         <f>IF(E66&gt;1,(1.732*D66*F66)/1000,(D66*F66)/1000)</f>
@@ -2147,354 +2147,368 @@
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>CUSTOM FABRICATION</t>
+          <t>UNDERCOUNTER</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B67" t="n">
         <v>1</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>TRASH RECEPTACLE</t>
-        </is>
-      </c>
-      <c r="F67" s="5" t="n"/>
-      <c r="G67" s="6" t="n"/>
+          <t>MOBILE WORK TABLE</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>120</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1</v>
+      </c>
+      <c r="F67" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="G67" s="6">
+        <f>IF(E67&gt;1,(1.732*D67*F67)/1000,(D67*F67)/1000)</f>
+        <v/>
+      </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>SLIM JIM</t>
+          <t>CUSTOM FABRICATION</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B68" t="n">
         <v>1</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>HAND SINK</t>
+          <t>TRASH RECEPTACLE</t>
         </is>
       </c>
       <c r="F68" s="5" t="n"/>
       <c r="G68" s="6" t="n"/>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>1/2"</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>1/2"</t>
-        </is>
-      </c>
-      <c r="J68" t="n">
-        <v>5</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>1-1/2"</t>
-        </is>
-      </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>WITH VENDOR PROVIDED SOAP &amp; TOWEL DISPENSER</t>
+          <t>SLIM JIM</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B69" t="n">
         <v>1</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>POS PRINTER</t>
-        </is>
-      </c>
-      <c r="D69" t="n">
-        <v>120</v>
-      </c>
-      <c r="E69" t="n">
-        <v>1</v>
-      </c>
-      <c r="F69" s="5" t="n">
+          <t>HAND SINK</t>
+        </is>
+      </c>
+      <c r="F69" s="5" t="n"/>
+      <c r="G69" s="6" t="n"/>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>1/2"</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>1/2"</t>
+        </is>
+      </c>
+      <c r="J69" t="n">
         <v>5</v>
       </c>
-      <c r="G69" s="6">
-        <f>IF(E69&gt;1,(1.732*D69*F69)/1000,(D69*F69)/1000)</f>
-        <v/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>1-1/2"</t>
+        </is>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>BY OS&amp;E</t>
+          <t>WITH VENDOR PROVIDED SOAP &amp; TOWEL DISPENSER</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
+        <v>59</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>POS PRINTER</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>120</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1</v>
+      </c>
+      <c r="F70" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G70" s="6">
+        <f>IF(E70&gt;1,(1.732*D70*F70)/1000,(D70*F70)/1000)</f>
+        <v/>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>BY OS&amp;E</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
         <v>60</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B71" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F70" s="5" t="n"/>
-      <c r="G70" s="6" t="n"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="3" t="inlineStr">
+      <c r="F71" s="5" t="n"/>
+      <c r="G71" s="6" t="n"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="3" t="inlineStr">
         <is>
           <t>POT WASH AREA</t>
         </is>
       </c>
-      <c r="B71" s="4" t="n"/>
-      <c r="C71" s="4" t="n"/>
-      <c r="D71" s="4" t="n"/>
-      <c r="E71" s="4" t="n"/>
-      <c r="F71" s="4" t="n"/>
-      <c r="G71" s="4" t="n"/>
-      <c r="H71" s="4" t="n"/>
-      <c r="I71" s="4" t="n"/>
-      <c r="J71" s="4" t="n"/>
-      <c r="K71" s="4" t="n"/>
-      <c r="L71" s="4" t="n"/>
-      <c r="M71" s="4" t="n"/>
-      <c r="N71" s="4" t="n"/>
-      <c r="O71" s="4" t="n"/>
-      <c r="P71" s="4" t="n"/>
-      <c r="Q71" s="4" t="n"/>
-      <c r="R71" s="4" t="n"/>
-      <c r="S71" s="4" t="n"/>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>61</v>
-      </c>
-      <c r="B72" t="n">
-        <v>1</v>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>DRY STORAGE SHELVING</t>
-        </is>
-      </c>
-      <c r="F72" s="5" t="n"/>
-      <c r="G72" s="6" t="n"/>
-      <c r="S72" t="inlineStr">
-        <is>
-          <t>FIXED FIVE TIER</t>
-        </is>
-      </c>
+      <c r="B72" s="4" t="n"/>
+      <c r="C72" s="4" t="n"/>
+      <c r="D72" s="4" t="n"/>
+      <c r="E72" s="4" t="n"/>
+      <c r="F72" s="4" t="n"/>
+      <c r="G72" s="4" t="n"/>
+      <c r="H72" s="4" t="n"/>
+      <c r="I72" s="4" t="n"/>
+      <c r="J72" s="4" t="n"/>
+      <c r="K72" s="4" t="n"/>
+      <c r="L72" s="4" t="n"/>
+      <c r="M72" s="4" t="n"/>
+      <c r="N72" s="4" t="n"/>
+      <c r="O72" s="4" t="n"/>
+      <c r="P72" s="4" t="n"/>
+      <c r="Q72" s="4" t="n"/>
+      <c r="R72" s="4" t="n"/>
+      <c r="S72" s="4" t="n"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B73" t="n">
         <v>1</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>POT AND PAN SHELVING</t>
+          <t>DRY STORAGE SHELVING</t>
         </is>
       </c>
       <c r="F73" s="5" t="n"/>
       <c r="G73" s="6" t="n"/>
       <c r="S73" t="inlineStr">
         <is>
-          <t>MOBILE FOUR TIER</t>
+          <t>FIXED FIVE TIER</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B74" t="n">
         <v>1</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>HAND SINK</t>
+          <t>POT AND PAN SHELVING</t>
         </is>
       </c>
       <c r="F74" s="5" t="n"/>
       <c r="G74" s="6" t="n"/>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>1/2"</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>1/2"</t>
-        </is>
-      </c>
-      <c r="J74" t="n">
-        <v>5</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>1-1/2"</t>
-        </is>
-      </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>WITH VENDOR PROVIDED SOAP &amp; TOWEL DISPENSER</t>
+          <t>MOBILE FOUR TIER</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B75" t="n">
         <v>1</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>TRASH RECEPTACLE</t>
+          <t>HAND SINK</t>
         </is>
       </c>
       <c r="F75" s="5" t="n"/>
       <c r="G75" s="6" t="n"/>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>1/2"</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>1/2"</t>
+        </is>
+      </c>
+      <c r="J75" t="n">
+        <v>5</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>1-1/2"</t>
+        </is>
+      </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>SLIM JIM</t>
+          <t>WITH VENDOR PROVIDED SOAP &amp; TOWEL DISPENSER</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>65</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>64</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>SPARE NUMBER</t>
+          <t>TRASH RECEPTACLE</t>
         </is>
       </c>
       <c r="F76" s="5" t="n"/>
       <c r="G76" s="6" t="n"/>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>SLIM JIM</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>66</v>
-      </c>
-      <c r="B77" t="n">
-        <v>1</v>
+        <v>65</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>POT SINK</t>
+          <t>SPARE NUMBER</t>
         </is>
       </c>
       <c r="F77" s="5" t="n"/>
       <c r="G77" s="6" t="n"/>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>(2)3/4"</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>(2)3/4"</t>
-        </is>
-      </c>
-      <c r="J77" t="n">
-        <v>90</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>(3)2"</t>
-        </is>
-      </c>
-      <c r="S77" t="inlineStr">
-        <is>
-          <t>CUSTOM FABRICATION</t>
-        </is>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B78" t="n">
         <v>1</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>TRASH RECEPTACLE</t>
+          <t>POT SINK</t>
         </is>
       </c>
       <c r="F78" s="5" t="n"/>
       <c r="G78" s="6" t="n"/>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>(2)3/4"</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>(2)3/4"</t>
+        </is>
+      </c>
+      <c r="J78" t="n">
+        <v>90</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>(3)2"</t>
+        </is>
+      </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>WITH LID AND DOLLY</t>
+          <t>CUSTOM FABRICATION</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B79" t="n">
         <v>1</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>POT SHELF</t>
+          <t>TRASH RECEPTACLE</t>
         </is>
       </c>
       <c r="F79" s="5" t="n"/>
       <c r="G79" s="6" t="n"/>
       <c r="S79" t="inlineStr">
         <is>
-          <t>CUSTOM FABRICATION</t>
+          <t>WITH LID AND DOLLY</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>69</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>68</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>SPARE NUMBER</t>
+          <t>POT SHELF</t>
         </is>
       </c>
       <c r="F80" s="5" t="n"/>
       <c r="G80" s="6" t="n"/>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>CUSTOM FABRICATION</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -2511,113 +2525,113 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>71</v>
-      </c>
-      <c r="B82" t="n">
-        <v>1</v>
+        <v>70</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>UNDERCOUNTER DISH MACHINE</t>
-        </is>
-      </c>
-      <c r="D82" t="n">
-        <v>208</v>
-      </c>
-      <c r="E82" t="n">
-        <v>1</v>
-      </c>
-      <c r="F82" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="G82" s="6">
-        <f>IF(E82&gt;1,(1.732*D82*F82)/1000,(D82*F82)/1000)</f>
-        <v/>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>3/4"</t>
-        </is>
-      </c>
-      <c r="J82" t="n">
-        <v>21</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>3/4"</t>
-        </is>
-      </c>
-      <c r="S82" t="inlineStr">
-        <is>
-          <t>180° RINSE</t>
-        </is>
-      </c>
+          <t>SPARE NUMBER</t>
+        </is>
+      </c>
+      <c r="F82" s="5" t="n"/>
+      <c r="G82" s="6" t="n"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B83" t="n">
         <v>1</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>FLOOR TROUGH &amp; GRATE</t>
-        </is>
-      </c>
-      <c r="F83" s="5" t="n"/>
-      <c r="G83" s="6" t="n"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>2"</t>
+          <t>UNDERCOUNTER DISH MACHINE</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>208</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1</v>
+      </c>
+      <c r="F83" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="G83" s="6">
+        <f>IF(E83&gt;1,(1.732*D83*F83)/1000,(D83*F83)/1000)</f>
+        <v/>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>3/4"</t>
+        </is>
+      </c>
+      <c r="J83" t="n">
+        <v>21</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>CUSTOM FABRICATION</t>
+          <t>180° RINSE</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B84" t="n">
         <v>1</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>CLEAN DISH STORAGE SHELVING</t>
+          <t>FLOOR TROUGH &amp; GRATE</t>
         </is>
       </c>
       <c r="F84" s="5" t="n"/>
       <c r="G84" s="6" t="n"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>2"</t>
+        </is>
+      </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>FIXED FIVE TIER</t>
+          <t>CUSTOM FABRICATION</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>74</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>73</v>
+      </c>
+      <c r="B85" t="n">
+        <v>1</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>SPARE NUMBER</t>
+          <t>CLEAN DISH STORAGE SHELVING</t>
         </is>
       </c>
       <c r="F85" s="5" t="n"/>
       <c r="G85" s="6" t="n"/>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>FIXED FIVE TIER</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -2634,51 +2648,38 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>76</v>
-      </c>
-      <c r="B87" t="n">
-        <v>1</v>
+        <v>75</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>MOP SINK</t>
+          <t>SPARE NUMBER</t>
         </is>
       </c>
       <c r="F87" s="5" t="n"/>
       <c r="G87" s="6" t="n"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>2"</t>
-        </is>
-      </c>
-      <c r="S87" t="inlineStr">
-        <is>
-          <t>BY GENERAL CONTRACTOR</t>
-        </is>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B88" t="n">
         <v>1</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>HOSE BIBB</t>
+          <t>MOP SINK</t>
         </is>
       </c>
       <c r="F88" s="5" t="n"/>
       <c r="G88" s="6" t="n"/>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>1/2"</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>1/2"</t>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>2"</t>
         </is>
       </c>
       <c r="S88" t="inlineStr">
@@ -2689,44 +2690,57 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B89" t="n">
         <v>1</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>WALL SHELF</t>
+          <t>HOSE BIBB</t>
         </is>
       </c>
       <c r="F89" s="5" t="n"/>
       <c r="G89" s="6" t="n"/>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>1/2"</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>1/2"</t>
+        </is>
+      </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>CUSTOM FABRICATION</t>
+          <t>BY GENERAL CONTRACTOR</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>79</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>78</v>
+      </c>
+      <c r="B90" t="n">
+        <v>1</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>SPARE NUMBER</t>
+          <t>WALL SHELF</t>
         </is>
       </c>
       <c r="F90" s="5" t="n"/>
       <c r="G90" s="6" t="n"/>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>CUSTOM FABRICATION</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -2743,85 +2757,71 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>81</v>
-      </c>
-      <c r="B92" t="n">
-        <v>1</v>
+        <v>80</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>DETERGENT STORAGE SHELVING</t>
+          <t>SPARE NUMBER</t>
         </is>
       </c>
       <c r="F92" s="5" t="n"/>
       <c r="G92" s="6" t="n"/>
-      <c r="S92" t="inlineStr">
-        <is>
-          <t>FIXED FIVE TIER</t>
-        </is>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B93" t="n">
         <v>1</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>MOP RACK</t>
+          <t>DETERGENT STORAGE SHELVING</t>
         </is>
       </c>
       <c r="F93" s="5" t="n"/>
       <c r="G93" s="6" t="n"/>
       <c r="S93" t="inlineStr">
         <is>
-          <t>BY GENERAL CONTRACTOR</t>
+          <t>FIXED FIVE TIER</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B94" t="n">
         <v>1</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>AIR CURTAIN</t>
-        </is>
-      </c>
-      <c r="D94" t="n">
-        <v>120</v>
-      </c>
-      <c r="E94" t="n">
-        <v>1</v>
-      </c>
-      <c r="F94" s="5" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="G94" s="6">
-        <f>IF(E94&gt;1,(1.732*D94*F94)/1000,(D94*F94)/1000)</f>
-        <v/>
-      </c>
+          <t>MOP RACK</t>
+        </is>
+      </c>
+      <c r="F94" s="5" t="n"/>
+      <c r="G94" s="6" t="n"/>
       <c r="S94" t="inlineStr">
         <is>
-          <t>WALL MOUNTED WITH UV HEPAC AND IONIZER</t>
+          <t>BY GENERAL CONTRACTOR</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B95" t="n">
         <v>1</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>INSECT CONTROL</t>
+          <t>AIR CURTAIN</t>
         </is>
       </c>
       <c r="D95" t="n">
@@ -2831,7 +2831,7 @@
         <v>1</v>
       </c>
       <c r="F95" s="5" t="n">
-        <v>1.4</v>
+        <v>5.7</v>
       </c>
       <c r="G95" s="6">
         <f>IF(E95&gt;1,(1.732*D95*F95)/1000,(D95*F95)/1000)</f>
@@ -2839,110 +2839,110 @@
       </c>
       <c r="S95" t="inlineStr">
         <is>
+          <t>WALL MOUNTED WITH UV HEPAC AND IONIZER</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>84</v>
+      </c>
+      <c r="B96" t="n">
+        <v>1</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>INSECT CONTROL</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>120</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1</v>
+      </c>
+      <c r="F96" s="5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G96" s="6">
+        <f>IF(E96&gt;1,(1.732*D96*F96)/1000,(D96*F96)/1000)</f>
+        <v/>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
           <t>WALL MOUNT</t>
         </is>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
+    <row r="97">
+      <c r="A97" t="inlineStr">
         <is>
           <t>85-100</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B97" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="C97" t="inlineStr">
         <is>
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F96" s="5" t="n"/>
-      <c r="G96" s="6" t="n"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="3" t="inlineStr">
+      <c r="F97" s="5" t="n"/>
+      <c r="G97" s="6" t="n"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="3" t="inlineStr">
         <is>
           <t>SERVERY AREA</t>
         </is>
       </c>
-      <c r="B97" s="4" t="n"/>
-      <c r="C97" s="4" t="n"/>
-      <c r="D97" s="4" t="n"/>
-      <c r="E97" s="4" t="n"/>
-      <c r="F97" s="4" t="n"/>
-      <c r="G97" s="4" t="n"/>
-      <c r="H97" s="4" t="n"/>
-      <c r="I97" s="4" t="n"/>
-      <c r="J97" s="4" t="n"/>
-      <c r="K97" s="4" t="n"/>
-      <c r="L97" s="4" t="n"/>
-      <c r="M97" s="4" t="n"/>
-      <c r="N97" s="4" t="n"/>
-      <c r="O97" s="4" t="n"/>
-      <c r="P97" s="4" t="n"/>
-      <c r="Q97" s="4" t="n"/>
-      <c r="R97" s="4" t="n"/>
-      <c r="S97" s="4" t="n"/>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>101</v>
-      </c>
-      <c r="B98" t="n">
-        <v>1</v>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>REFRIGERATED MERCHANDISER</t>
-        </is>
-      </c>
-      <c r="F98" s="5" t="n"/>
-      <c r="G98" s="6" t="n"/>
+      <c r="B98" s="4" t="n"/>
+      <c r="C98" s="4" t="n"/>
+      <c r="D98" s="4" t="n"/>
+      <c r="E98" s="4" t="n"/>
+      <c r="F98" s="4" t="n"/>
+      <c r="G98" s="4" t="n"/>
+      <c r="H98" s="4" t="n"/>
+      <c r="I98" s="4" t="n"/>
+      <c r="J98" s="4" t="n"/>
+      <c r="K98" s="4" t="n"/>
+      <c r="L98" s="4" t="n"/>
+      <c r="M98" s="4" t="n"/>
+      <c r="N98" s="4" t="n"/>
+      <c r="O98" s="4" t="n"/>
+      <c r="P98" s="4" t="n"/>
+      <c r="Q98" s="4" t="n"/>
+      <c r="R98" s="4" t="n"/>
+      <c r="S98" s="4" t="n"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B99" t="n">
         <v>1</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>SERVERY COUNTER</t>
-        </is>
-      </c>
-      <c r="D99" t="n">
-        <v>120</v>
-      </c>
-      <c r="E99" t="n">
-        <v>1</v>
-      </c>
-      <c r="F99" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="G99" s="6">
-        <f>IF(E99&gt;1,(1.732*D99*F99)/1000,(D99*F99)/1000)</f>
-        <v/>
-      </c>
-      <c r="S99" t="inlineStr">
-        <is>
-          <t>MILLWORK / BY GENERAL CONTRACTOR</t>
-        </is>
-      </c>
+          <t>REFRIGERATED MERCHANDISER</t>
+        </is>
+      </c>
+      <c r="F99" s="5" t="n"/>
+      <c r="G99" s="6" t="n"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B100" t="n">
         <v>1</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>ICED TEA BREWER</t>
+          <t>SERVERY COUNTER</t>
         </is>
       </c>
       <c r="D100" t="n">
@@ -2952,33 +2952,28 @@
         <v>1</v>
       </c>
       <c r="F100" s="5" t="n">
-        <v>14.4</v>
+        <v>20</v>
       </c>
       <c r="G100" s="6">
         <f>IF(E100&gt;1,(1.732*D100*F100)/1000,(D100*F100)/1000)</f>
         <v/>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>1/4"</t>
-        </is>
-      </c>
       <c r="S100" t="inlineStr">
         <is>
-          <t>BY VENDOR</t>
+          <t>MILLWORK / BY GENERAL CONTRACTOR</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B101" t="n">
         <v>1</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>COFFEE BREWER</t>
+          <t>ICED TEA BREWER</t>
         </is>
       </c>
       <c r="D101" t="n">
@@ -2988,7 +2983,7 @@
         <v>1</v>
       </c>
       <c r="F101" s="5" t="n">
-        <v>28.3</v>
+        <v>14.4</v>
       </c>
       <c r="G101" s="6">
         <f>IF(E101&gt;1,(1.732*D101*F101)/1000,(D101*F101)/1000)</f>
@@ -3007,31 +3002,52 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>105</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>104</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>SPARE NUMBER</t>
-        </is>
-      </c>
-      <c r="F102" s="5" t="n"/>
-      <c r="G102" s="6" t="n"/>
+          <t>COFFEE BREWER</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>208</v>
+      </c>
+      <c r="E102" t="n">
+        <v>1</v>
+      </c>
+      <c r="F102" s="5" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="G102" s="6">
+        <f>IF(E102&gt;1,(1.732*D102*F102)/1000,(D102*F102)/1000)</f>
+        <v/>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>1/4"</t>
+        </is>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>BY VENDOR</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>106</v>
-      </c>
-      <c r="B103" t="n">
-        <v>3</v>
+        <v>105</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>CUP DISPENSER</t>
+          <t>SPARE NUMBER</t>
         </is>
       </c>
       <c r="F103" s="5" t="n"/>
@@ -3039,14 +3055,14 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B104" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>LID DISPENSER</t>
+          <t>CUP DISPENSER</t>
         </is>
       </c>
       <c r="F104" s="5" t="n"/>
@@ -3054,60 +3070,58 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B105" t="n">
         <v>1</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>SODA AND ICE DISPENSER</t>
-        </is>
-      </c>
-      <c r="D105" t="n">
-        <v>120</v>
-      </c>
-      <c r="E105" t="n">
-        <v>1</v>
-      </c>
-      <c r="F105" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="G105" s="6">
-        <f>IF(E105&gt;1,(1.732*D105*F105)/1000,(D105*F105)/1000)</f>
-        <v/>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>3/4"</t>
-        </is>
-      </c>
-      <c r="S105" t="inlineStr">
-        <is>
-          <t>BY VENDOR</t>
-        </is>
-      </c>
+          <t>LID DISPENSER</t>
+        </is>
+      </c>
+      <c r="F105" s="5" t="n"/>
+      <c r="G105" s="6" t="n"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>109</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>108</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>SPARE NUMBER</t>
-        </is>
-      </c>
-      <c r="F106" s="5" t="n"/>
-      <c r="G106" s="6" t="n"/>
+          <t>SODA AND ICE DISPENSER</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>120</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1</v>
+      </c>
+      <c r="F106" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="G106" s="6">
+        <f>IF(E106&gt;1,(1.732*D106*F106)/1000,(D106*F106)/1000)</f>
+        <v/>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>3/4"</t>
+        </is>
+      </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>BY VENDOR</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -3124,263 +3138,263 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>111</v>
-      </c>
-      <c r="B108" t="n">
-        <v>1</v>
+        <v>110</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>ICE MACHINE</t>
-        </is>
-      </c>
-      <c r="D108" t="n">
-        <v>120</v>
-      </c>
-      <c r="E108" t="n">
-        <v>1</v>
-      </c>
-      <c r="F108" s="5" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="G108" s="6">
-        <f>IF(E108&gt;1,(1.732*D108*F108)/1000,(D108*F108)/1000)</f>
-        <v/>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>3/8"</t>
-        </is>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>3/4"</t>
-        </is>
-      </c>
-      <c r="P108" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Q108" t="inlineStr">
-        <is>
-          <t>3/8"</t>
-        </is>
-      </c>
-      <c r="R108" t="inlineStr">
-        <is>
-          <t>1/2"</t>
-        </is>
-      </c>
-      <c r="S108" t="inlineStr">
-        <is>
-          <t>420LBS. WATER-COOLED NUGGET ICE</t>
-        </is>
-      </c>
+          <t>SPARE NUMBER</t>
+        </is>
+      </c>
+      <c r="F108" s="5" t="n"/>
+      <c r="G108" s="6" t="n"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B109" t="n">
         <v>1</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>WATER FILTRATION SYSTEM</t>
-        </is>
-      </c>
-      <c r="F109" s="5" t="n"/>
-      <c r="G109" s="6" t="n"/>
+          <t>ICE MACHINE</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>120</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1</v>
+      </c>
+      <c r="F109" s="5" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="G109" s="6">
+        <f>IF(E109&gt;1,(1.732*D109*F109)/1000,(D109*F109)/1000)</f>
+        <v/>
+      </c>
       <c r="H109" t="inlineStr">
         <is>
           <t>3/8"</t>
         </is>
       </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>3/4"</t>
+        </is>
+      </c>
+      <c r="P109" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>3/8"</t>
+        </is>
+      </c>
+      <c r="R109" t="inlineStr">
+        <is>
+          <t>1/2"</t>
+        </is>
+      </c>
       <c r="S109" t="inlineStr">
         <is>
-          <t>FOR ITEM #111 UNDERCOUNTER</t>
+          <t>420LBS. WATER-COOLED NUGGET ICE</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B110" t="n">
         <v>1</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>DROP-IN HAND SINK</t>
+          <t>WATER FILTRATION SYSTEM</t>
         </is>
       </c>
       <c r="F110" s="5" t="n"/>
       <c r="G110" s="6" t="n"/>
       <c r="H110" t="inlineStr">
         <is>
-          <t>1/2"</t>
-        </is>
-      </c>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>1/2"</t>
-        </is>
-      </c>
-      <c r="J110" t="n">
-        <v>5</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>1-1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="S110" t="inlineStr">
         <is>
-          <t>WITH SOAP &amp; TOWEL DISPENSER</t>
+          <t>FOR ITEM #111 UNDERCOUNTER</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B111" t="n">
         <v>1</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>TRASH CHUTE</t>
+          <t>DROP-IN HAND SINK</t>
         </is>
       </c>
       <c r="F111" s="5" t="n"/>
       <c r="G111" s="6" t="n"/>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>1/2"</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>1/2"</t>
+        </is>
+      </c>
+      <c r="J111" t="n">
+        <v>5</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>1-1/2"</t>
+        </is>
+      </c>
       <c r="S111" t="inlineStr">
         <is>
-          <t>CUSTOM FABRICATION PART OF ITEM #102</t>
+          <t>WITH SOAP &amp; TOWEL DISPENSER</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B112" t="n">
         <v>1</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>POS PRINTER</t>
-        </is>
-      </c>
-      <c r="D112" t="n">
-        <v>120</v>
-      </c>
-      <c r="E112" t="n">
-        <v>1</v>
-      </c>
-      <c r="F112" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="G112" s="6">
-        <f>IF(E112&gt;1,(1.732*D112*F112)/1000,(D112*F112)/1000)</f>
-        <v/>
-      </c>
+          <t>TRASH CHUTE</t>
+        </is>
+      </c>
+      <c r="F112" s="5" t="n"/>
+      <c r="G112" s="6" t="n"/>
       <c r="S112" t="inlineStr">
         <is>
-          <t>BY OS&amp;E</t>
+          <t>CUSTOM FABRICATION PART OF ITEM #102</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B113" t="n">
         <v>1</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>TRASH RECEPTACLE</t>
-        </is>
-      </c>
-      <c r="F113" s="5" t="n"/>
-      <c r="G113" s="6" t="n"/>
+          <t>POS PRINTER</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>120</v>
+      </c>
+      <c r="E113" t="n">
+        <v>1</v>
+      </c>
+      <c r="F113" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G113" s="6">
+        <f>IF(E113&gt;1,(1.732*D113*F113)/1000,(D113*F113)/1000)</f>
+        <v/>
+      </c>
       <c r="S113" t="inlineStr">
         <is>
-          <t>SLIM JIM</t>
+          <t>BY OS&amp;E</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B114" t="n">
         <v>1</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>POS SYSTEM</t>
-        </is>
-      </c>
-      <c r="D114" t="n">
-        <v>120</v>
-      </c>
-      <c r="E114" t="n">
-        <v>1</v>
-      </c>
-      <c r="F114" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="G114" s="6">
-        <f>IF(E114&gt;1,(1.732*D114*F114)/1000,(D114*F114)/1000)</f>
-        <v/>
-      </c>
+          <t>TRASH RECEPTACLE</t>
+        </is>
+      </c>
+      <c r="F114" s="5" t="n"/>
+      <c r="G114" s="6" t="n"/>
       <c r="S114" t="inlineStr">
         <is>
-          <t>BY OS&amp;E</t>
+          <t>SLIM JIM</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B115" t="n">
         <v>1</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>TRAY PICKUP</t>
-        </is>
-      </c>
-      <c r="F115" s="5" t="n"/>
-      <c r="G115" s="6" t="n"/>
+          <t>POS SYSTEM</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>120</v>
+      </c>
+      <c r="E115" t="n">
+        <v>1</v>
+      </c>
+      <c r="F115" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G115" s="6">
+        <f>IF(E115&gt;1,(1.732*D115*F115)/1000,(D115*F115)/1000)</f>
+        <v/>
+      </c>
       <c r="S115" t="inlineStr">
         <is>
-          <t>MILLWORK / BY GENERAL CONTRACTOR</t>
+          <t>BY OS&amp;E</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>119</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>118</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>SPARE NUMBER</t>
+          <t>TRAY PICKUP</t>
         </is>
       </c>
       <c r="F116" s="5" t="n"/>
       <c r="G116" s="6" t="n"/>
+      <c r="S116" t="inlineStr">
+        <is>
+          <t>MILLWORK / BY GENERAL CONTRACTOR</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -3397,48 +3411,50 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>121</v>
-      </c>
-      <c r="B118" t="n">
-        <v>1</v>
+        <v>120</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>REFRIGERATED DISPLAY CASE</t>
-        </is>
-      </c>
-      <c r="D118" t="n">
-        <v>120</v>
-      </c>
-      <c r="E118" t="n">
-        <v>1</v>
-      </c>
-      <c r="F118" s="5" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="G118" s="6">
-        <f>IF(E118&gt;1,(1.732*D118*F118)/1000,(D118*F118)/1000)</f>
-        <v/>
-      </c>
+          <t>SPARE NUMBER</t>
+        </is>
+      </c>
+      <c r="F118" s="5" t="n"/>
+      <c r="G118" s="6" t="n"/>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B119" t="n">
         <v>1</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>HEATED DISPLAY CASE</t>
-        </is>
-      </c>
-      <c r="F119" s="5" t="n"/>
-      <c r="G119" s="6" t="n"/>
+          <t>REFRIGERATED DISPLAY CASE</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>120</v>
+      </c>
+      <c r="E119" t="n">
+        <v>1</v>
+      </c>
+      <c r="F119" s="5" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="G119" s="6">
+        <f>IF(E119&gt;1,(1.732*D119*F119)/1000,(D119*F119)/1000)</f>
+        <v/>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B120" t="n">
         <v>1</v>
@@ -3453,45 +3469,29 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>POS SYSTEM</t>
-        </is>
-      </c>
-      <c r="D121" t="n">
-        <v>120</v>
-      </c>
-      <c r="E121" t="n">
-        <v>1</v>
-      </c>
-      <c r="F121" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="G121" s="6">
-        <f>IF(E121&gt;1,(1.732*D121*F121)/1000,(D121*F121)/1000)</f>
-        <v/>
-      </c>
-      <c r="S121" t="inlineStr">
-        <is>
-          <t>BY OS&amp;E</t>
-        </is>
-      </c>
+          <t>HEATED DISPLAY CASE</t>
+        </is>
+      </c>
+      <c r="F121" s="5" t="n"/>
+      <c r="G121" s="6" t="n"/>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B122" t="n">
         <v>2</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>POS PRINTER</t>
+          <t>POS SYSTEM</t>
         </is>
       </c>
       <c r="D122" t="n">
@@ -3501,7 +3501,7 @@
         <v>1</v>
       </c>
       <c r="F122" s="5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G122" s="6">
         <f>IF(E122&gt;1,(1.732*D122*F122)/1000,(D122*F122)/1000)</f>
@@ -3515,14 +3515,14 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>PASS-THRU REFRIGERATOR</t>
+          <t>POS PRINTER</t>
         </is>
       </c>
       <c r="D123" t="n">
@@ -3532,7 +3532,7 @@
         <v>1</v>
       </c>
       <c r="F123" s="5" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="G123" s="6">
         <f>IF(E123&gt;1,(1.732*D123*F123)/1000,(D123*F123)/1000)</f>
@@ -3540,30 +3540,30 @@
       </c>
       <c r="S123" t="inlineStr">
         <is>
-          <t>MOBILE</t>
+          <t>BY OS&amp;E</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B124" t="n">
         <v>1</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>PASS-THRU HEATED CABINET</t>
+          <t>PASS-THRU REFRIGERATOR</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>208</v>
+        <v>120</v>
       </c>
       <c r="E124" t="n">
         <v>1</v>
       </c>
       <c r="F124" s="5" t="n">
-        <v>7.2</v>
+        <v>5.5</v>
       </c>
       <c r="G124" s="6">
         <f>IF(E124&gt;1,(1.732*D124*F124)/1000,(D124*F124)/1000)</f>
@@ -3577,7 +3577,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B125" t="n">
         <v>1</v>
@@ -3608,86 +3608,97 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>129</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>128</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>SPARE NUMBER</t>
-        </is>
-      </c>
-      <c r="F126" s="5" t="n"/>
-      <c r="G126" s="6" t="n"/>
+          <t>PASS-THRU HEATED CABINET</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>208</v>
+      </c>
+      <c r="E126" t="n">
+        <v>1</v>
+      </c>
+      <c r="F126" s="5" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="G126" s="6">
+        <f>IF(E126&gt;1,(1.732*D126*F126)/1000,(D126*F126)/1000)</f>
+        <v/>
+      </c>
+      <c r="S126" t="inlineStr">
+        <is>
+          <t>MOBILE</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>130</v>
-      </c>
-      <c r="B127" t="n">
-        <v>1</v>
+        <v>129</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>PASS THRU SHELF</t>
+          <t>SPARE NUMBER</t>
         </is>
       </c>
       <c r="F127" s="5" t="n"/>
       <c r="G127" s="6" t="n"/>
-      <c r="S127" t="inlineStr">
-        <is>
-          <t>CUSTOM FABRICATION</t>
-        </is>
-      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B128" t="n">
         <v>1</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>BACK SERVERY COUNTER</t>
-        </is>
-      </c>
-      <c r="D128" t="n">
-        <v>120</v>
-      </c>
-      <c r="E128" t="n">
-        <v>1</v>
-      </c>
-      <c r="F128" s="5" t="n">
-        <v>40</v>
-      </c>
-      <c r="G128" s="6">
-        <f>IF(E128&gt;1,(1.732*D128*F128)/1000,(D128*F128)/1000)</f>
-        <v/>
-      </c>
+          <t>PASS THRU SHELF</t>
+        </is>
+      </c>
+      <c r="F128" s="5" t="n"/>
+      <c r="G128" s="6" t="n"/>
       <c r="S128" t="inlineStr">
         <is>
-          <t>MILLWORK / BY GENERAL CONTRACTOR</t>
+          <t>CUSTOM FABRICATION</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B129" t="n">
         <v>1</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>WALL CABINET</t>
-        </is>
-      </c>
-      <c r="F129" s="5" t="n"/>
-      <c r="G129" s="6" t="n"/>
+          <t>BACK SERVERY COUNTER</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>120</v>
+      </c>
+      <c r="E129" t="n">
+        <v>1</v>
+      </c>
+      <c r="F129" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="G129" s="6">
+        <f>IF(E129&gt;1,(1.732*D129*F129)/1000,(D129*F129)/1000)</f>
+        <v/>
+      </c>
       <c r="S129" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
@@ -3696,120 +3707,109 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B130" t="n">
         <v>1</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>HAND SINK</t>
+          <t>WALL CABINET</t>
         </is>
       </c>
       <c r="F130" s="5" t="n"/>
       <c r="G130" s="6" t="n"/>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>1/2"</t>
-        </is>
-      </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>1/2"</t>
-        </is>
-      </c>
-      <c r="J130" t="n">
-        <v>5</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>1-1/2"</t>
-        </is>
-      </c>
       <c r="S130" t="inlineStr">
         <is>
-          <t>WITH VENDOR PROVIDED SOAP &amp; TOWEL DISPENSER</t>
+          <t>MILLWORK / BY GENERAL CONTRACTOR</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B131" t="n">
         <v>1</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>TRASH RECEPTACLE</t>
+          <t>HAND SINK</t>
         </is>
       </c>
       <c r="F131" s="5" t="n"/>
       <c r="G131" s="6" t="n"/>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>1/2"</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>1/2"</t>
+        </is>
+      </c>
+      <c r="J131" t="n">
+        <v>5</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>1-1/2"</t>
+        </is>
+      </c>
       <c r="S131" t="inlineStr">
         <is>
-          <t>SLIM JIM</t>
+          <t>WITH VENDOR PROVIDED SOAP &amp; TOWEL DISPENSER</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>135</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>134</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>SPARE NUMBER</t>
+          <t>TRASH RECEPTACLE</t>
         </is>
       </c>
       <c r="F132" s="5" t="n"/>
       <c r="G132" s="6" t="n"/>
+      <c r="S132" t="inlineStr">
+        <is>
+          <t>SLIM JIM</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>136</v>
-      </c>
-      <c r="B133" t="n">
-        <v>1</v>
+        <v>135</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>BACK SERVING COUNTER</t>
-        </is>
-      </c>
-      <c r="D133" t="n">
-        <v>120</v>
-      </c>
-      <c r="E133" t="n">
-        <v>1</v>
-      </c>
-      <c r="F133" s="5" t="n">
-        <v>40</v>
-      </c>
-      <c r="G133" s="6">
-        <f>IF(E133&gt;1,(1.732*D133*F133)/1000,(D133*F133)/1000)</f>
-        <v/>
-      </c>
-      <c r="S133" t="inlineStr">
-        <is>
-          <t>MILLWORK / BY GENERAL CONTRACTOR</t>
-        </is>
-      </c>
+          <t>SPARE NUMBER</t>
+        </is>
+      </c>
+      <c r="F133" s="5" t="n"/>
+      <c r="G133" s="6" t="n"/>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B134" t="n">
         <v>1</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>ICED TEA BREWER</t>
+          <t>BACK SERVING COUNTER</t>
         </is>
       </c>
       <c r="D134" t="n">
@@ -3819,33 +3819,28 @@
         <v>1</v>
       </c>
       <c r="F134" s="5" t="n">
-        <v>14.4</v>
+        <v>40</v>
       </c>
       <c r="G134" s="6">
         <f>IF(E134&gt;1,(1.732*D134*F134)/1000,(D134*F134)/1000)</f>
         <v/>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>1/4"</t>
-        </is>
-      </c>
       <c r="S134" t="inlineStr">
         <is>
-          <t>BY VENDOR</t>
+          <t>MILLWORK / BY GENERAL CONTRACTOR</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B135" t="n">
         <v>1</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>COFFEE BREWER</t>
+          <t>ICED TEA BREWER</t>
         </is>
       </c>
       <c r="D135" t="n">
@@ -3855,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="F135" s="5" t="n">
-        <v>28.3</v>
+        <v>14.4</v>
       </c>
       <c r="G135" s="6">
         <f>IF(E135&gt;1,(1.732*D135*F135)/1000,(D135*F135)/1000)</f>
@@ -3874,62 +3869,67 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>139</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>138</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>SPARE NUMBER</t>
-        </is>
-      </c>
-      <c r="F136" s="5" t="n"/>
-      <c r="G136" s="6" t="n"/>
+          <t>COFFEE BREWER</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>208</v>
+      </c>
+      <c r="E136" t="n">
+        <v>1</v>
+      </c>
+      <c r="F136" s="5" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="G136" s="6">
+        <f>IF(E136&gt;1,(1.732*D136*F136)/1000,(D136*F136)/1000)</f>
+        <v/>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>1/4"</t>
+        </is>
+      </c>
+      <c r="S136" t="inlineStr">
+        <is>
+          <t>BY VENDOR</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>140</v>
-      </c>
-      <c r="B137" t="n">
-        <v>1</v>
+        <v>139</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>POS PRINTER</t>
-        </is>
-      </c>
-      <c r="D137" t="n">
-        <v>120</v>
-      </c>
-      <c r="E137" t="n">
-        <v>1</v>
-      </c>
-      <c r="F137" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="G137" s="6">
-        <f>IF(E137&gt;1,(1.732*D137*F137)/1000,(D137*F137)/1000)</f>
-        <v/>
-      </c>
-      <c r="S137" t="inlineStr">
-        <is>
-          <t>BY OS&amp;E</t>
-        </is>
-      </c>
+          <t>SPARE NUMBER</t>
+        </is>
+      </c>
+      <c r="F137" s="5" t="n"/>
+      <c r="G137" s="6" t="n"/>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>UNDERCOUNTER REFRIGERATOR</t>
+          <t>POS PRINTER</t>
         </is>
       </c>
       <c r="D138" t="n">
@@ -3939,7 +3939,7 @@
         <v>1</v>
       </c>
       <c r="F138" s="5" t="n">
-        <v>6.3</v>
+        <v>5</v>
       </c>
       <c r="G138" s="6">
         <f>IF(E138&gt;1,(1.732*D138*F138)/1000,(D138*F138)/1000)</f>
@@ -3947,20 +3947,20 @@
       </c>
       <c r="S138" t="inlineStr">
         <is>
-          <t>MOBILE</t>
+          <t>BY OS&amp;E</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B139" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>BLENDER</t>
+          <t>UNDERCOUNTER REFRIGERATOR</t>
         </is>
       </c>
       <c r="D139" t="n">
@@ -3970,7 +3970,7 @@
         <v>1</v>
       </c>
       <c r="F139" s="5" t="n">
-        <v>15</v>
+        <v>6.3</v>
       </c>
       <c r="G139" s="6">
         <f>IF(E139&gt;1,(1.732*D139*F139)/1000,(D139*F139)/1000)</f>
@@ -3978,62 +3978,55 @@
       </c>
       <c r="S139" t="inlineStr">
         <is>
-          <t>WITH DOME</t>
+          <t>MOBILE</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B140" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>ICE WELL</t>
-        </is>
-      </c>
-      <c r="F140" s="5" t="n"/>
-      <c r="G140" s="6" t="n"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>1-1/2"</t>
-        </is>
+          <t>BLENDER</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>120</v>
+      </c>
+      <c r="E140" t="n">
+        <v>1</v>
+      </c>
+      <c r="F140" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="G140" s="6">
+        <f>IF(E140&gt;1,(1.732*D140*F140)/1000,(D140*F140)/1000)</f>
+        <v/>
       </c>
       <c r="S140" t="inlineStr">
         <is>
-          <t>CUSTOM FABRICATION PART OF ITEM #136</t>
+          <t>WITH DOME</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B141" t="n">
         <v>1</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>DUMP SINK</t>
+          <t>ICE WELL</t>
         </is>
       </c>
       <c r="F141" s="5" t="n"/>
       <c r="G141" s="6" t="n"/>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>1/2"</t>
-        </is>
-      </c>
-      <c r="I141" t="inlineStr">
-        <is>
-          <t>1/2"</t>
-        </is>
-      </c>
-      <c r="J141" t="n">
-        <v>15</v>
-      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>1-1/2"</t>
@@ -4047,106 +4040,113 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B142" t="n">
         <v>1</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>ICE CART</t>
+          <t>DUMP SINK</t>
         </is>
       </c>
       <c r="F142" s="5" t="n"/>
       <c r="G142" s="6" t="n"/>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>1/2"</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>1/2"</t>
+        </is>
+      </c>
+      <c r="J142" t="n">
+        <v>15</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>1-1/2"</t>
+        </is>
+      </c>
       <c r="S142" t="inlineStr">
         <is>
-          <t>MOBILE 250LBS.</t>
+          <t>CUSTOM FABRICATION PART OF ITEM #136</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B143" t="n">
         <v>1</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>ESPRESSO MACHINE</t>
-        </is>
-      </c>
-      <c r="D143" t="n">
-        <v>208</v>
-      </c>
-      <c r="E143" t="n">
-        <v>1</v>
-      </c>
-      <c r="F143" s="5" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="G143" s="6">
-        <f>IF(E143&gt;1,(1.732*D143*F143)/1000,(D143*F143)/1000)</f>
-        <v/>
-      </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>1/2"</t>
-        </is>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>1/2"</t>
-        </is>
-      </c>
+          <t>ICE CART</t>
+        </is>
+      </c>
+      <c r="F143" s="5" t="n"/>
+      <c r="G143" s="6" t="n"/>
       <c r="S143" t="inlineStr">
         <is>
-          <t>2 GROUP</t>
+          <t>MOBILE 250LBS.</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B144" t="n">
         <v>1</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>UNDERCOUNTER REFRIGERATOR</t>
+          <t>ESPRESSO MACHINE</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>120</v>
+        <v>208</v>
       </c>
       <c r="E144" t="n">
         <v>1</v>
       </c>
       <c r="F144" s="5" t="n">
-        <v>6.3</v>
+        <v>41.8</v>
       </c>
       <c r="G144" s="6">
         <f>IF(E144&gt;1,(1.732*D144*F144)/1000,(D144*F144)/1000)</f>
         <v/>
       </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>1/2"</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>1/2"</t>
+        </is>
+      </c>
       <c r="S144" t="inlineStr">
         <is>
-          <t>MOBILE</t>
+          <t>2 GROUP</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>POS SYSTEM</t>
+          <t>UNDERCOUNTER REFRIGERATOR</t>
         </is>
       </c>
       <c r="D145" t="n">
@@ -4156,7 +4156,7 @@
         <v>1</v>
       </c>
       <c r="F145" s="5" t="n">
-        <v>10</v>
+        <v>6.3</v>
       </c>
       <c r="G145" s="6">
         <f>IF(E145&gt;1,(1.732*D145*F145)/1000,(D145*F145)/1000)</f>
@@ -4164,83 +4164,99 @@
       </c>
       <c r="S145" t="inlineStr">
         <is>
-          <t>BY OS&amp;E</t>
+          <t>MOBILE</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>149</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>148</v>
+      </c>
+      <c r="B146" t="n">
+        <v>2</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>SPARE NUMBER</t>
-        </is>
-      </c>
-      <c r="F146" s="5" t="n"/>
-      <c r="G146" s="6" t="n"/>
+          <t>POS SYSTEM</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>120</v>
+      </c>
+      <c r="E146" t="n">
+        <v>1</v>
+      </c>
+      <c r="F146" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G146" s="6">
+        <f>IF(E146&gt;1,(1.732*D146*F146)/1000,(D146*F146)/1000)</f>
+        <v/>
+      </c>
+      <c r="S146" t="inlineStr">
+        <is>
+          <t>BY OS&amp;E</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>150</v>
-      </c>
-      <c r="B147" t="n">
-        <v>2</v>
+        <v>149</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>POS PRINTER</t>
-        </is>
-      </c>
-      <c r="D147" t="n">
-        <v>120</v>
-      </c>
-      <c r="E147" t="n">
-        <v>1</v>
-      </c>
-      <c r="F147" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="G147" s="6">
-        <f>IF(E147&gt;1,(1.732*D147*F147)/1000,(D147*F147)/1000)</f>
-        <v/>
-      </c>
-      <c r="S147" t="inlineStr">
-        <is>
-          <t>BY OS&amp;E</t>
-        </is>
-      </c>
+          <t>SPARE NUMBER</t>
+        </is>
+      </c>
+      <c r="F147" s="5" t="n"/>
+      <c r="G147" s="6" t="n"/>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B148" t="n">
         <v>2</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>CUP DISPENSER</t>
-        </is>
-      </c>
-      <c r="F148" s="5" t="n"/>
-      <c r="G148" s="6" t="n"/>
+          <t>POS PRINTER</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>120</v>
+      </c>
+      <c r="E148" t="n">
+        <v>1</v>
+      </c>
+      <c r="F148" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G148" s="6">
+        <f>IF(E148&gt;1,(1.732*D148*F148)/1000,(D148*F148)/1000)</f>
+        <v/>
+      </c>
+      <c r="S148" t="inlineStr">
+        <is>
+          <t>BY OS&amp;E</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>PASTRY DISPLAY CASE</t>
+          <t>CUP DISPENSER</t>
         </is>
       </c>
       <c r="F149" s="5" t="n"/>
@@ -4248,102 +4264,97 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B150" t="n">
         <v>1</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>UNDERCOUNTER REFRIGERATOR</t>
-        </is>
-      </c>
-      <c r="D150" t="n">
-        <v>120</v>
-      </c>
-      <c r="E150" t="n">
-        <v>1</v>
-      </c>
-      <c r="F150" s="5" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="G150" s="6">
-        <f>IF(E150&gt;1,(1.732*D150*F150)/1000,(D150*F150)/1000)</f>
-        <v/>
-      </c>
-      <c r="S150" t="inlineStr">
-        <is>
-          <t>MOBILE</t>
-        </is>
-      </c>
+          <t>PASTRY DISPLAY CASE</t>
+        </is>
+      </c>
+      <c r="F150" s="5" t="n"/>
+      <c r="G150" s="6" t="n"/>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B151" t="n">
         <v>1</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>SERVING COUNTER</t>
-        </is>
-      </c>
-      <c r="F151" s="5" t="n"/>
-      <c r="G151" s="6" t="n"/>
+          <t>UNDERCOUNTER REFRIGERATOR</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>120</v>
+      </c>
+      <c r="E151" t="n">
+        <v>1</v>
+      </c>
+      <c r="F151" s="5" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="G151" s="6">
+        <f>IF(E151&gt;1,(1.732*D151*F151)/1000,(D151*F151)/1000)</f>
+        <v/>
+      </c>
       <c r="S151" t="inlineStr">
         <is>
-          <t>MILLWORK / BY GENERAL CONTRACTOR</t>
+          <t>MOBILE</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>155</v>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>154</v>
+      </c>
+      <c r="B152" t="n">
+        <v>1</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>SPARE NUMBER</t>
+          <t>SERVING COUNTER</t>
         </is>
       </c>
       <c r="F152" s="5" t="n"/>
       <c r="G152" s="6" t="n"/>
+      <c r="S152" t="inlineStr">
+        <is>
+          <t>MILLWORK / BY GENERAL CONTRACTOR</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>156</v>
-      </c>
-      <c r="B153" t="n">
-        <v>1</v>
+        <v>155</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>PICK-UP COUNTER</t>
+          <t>SPARE NUMBER</t>
         </is>
       </c>
       <c r="F153" s="5" t="n"/>
       <c r="G153" s="6" t="n"/>
-      <c r="S153" t="inlineStr">
-        <is>
-          <t>MILLWORK / BY GENERAL CONTRACTOR</t>
-        </is>
-      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B154" t="n">
         <v>1</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>POS COUNTER</t>
+          <t>PICK-UP COUNTER</t>
         </is>
       </c>
       <c r="F154" s="5" t="n"/>
@@ -4356,55 +4367,58 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B155" t="n">
         <v>1</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>POS SYSTEM</t>
-        </is>
-      </c>
-      <c r="D155" t="n">
-        <v>120</v>
-      </c>
-      <c r="E155" t="n">
-        <v>1</v>
-      </c>
-      <c r="F155" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="G155" s="6">
-        <f>IF(E155&gt;1,(1.732*D155*F155)/1000,(D155*F155)/1000)</f>
-        <v/>
-      </c>
+          <t>POS COUNTER</t>
+        </is>
+      </c>
+      <c r="F155" s="5" t="n"/>
+      <c r="G155" s="6" t="n"/>
       <c r="S155" t="inlineStr">
         <is>
-          <t>BY OS&amp;E</t>
+          <t>MILLWORK / BY GENERAL CONTRACTOR</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>159</v>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>158</v>
+      </c>
+      <c r="B156" t="n">
+        <v>1</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>SPARE NUMBER</t>
-        </is>
-      </c>
-      <c r="F156" s="5" t="n"/>
-      <c r="G156" s="6" t="n"/>
+          <t>POS SYSTEM</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>120</v>
+      </c>
+      <c r="E156" t="n">
+        <v>1</v>
+      </c>
+      <c r="F156" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G156" s="6">
+        <f>IF(E156&gt;1,(1.732*D156*F156)/1000,(D156*F156)/1000)</f>
+        <v/>
+      </c>
+      <c r="S156" t="inlineStr">
+        <is>
+          <t>BY OS&amp;E</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -4421,104 +4435,101 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>161</v>
-      </c>
-      <c r="B158" t="n">
-        <v>1</v>
+        <v>160</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>CHAIR</t>
+          <t>SPARE NUMBER</t>
         </is>
       </c>
       <c r="F158" s="5" t="n"/>
       <c r="G158" s="6" t="n"/>
-      <c r="S158" t="inlineStr">
-        <is>
-          <t>BY OS&amp;E</t>
-        </is>
-      </c>
     </row>
     <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>162-170</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="A159" t="n">
+        <v>161</v>
+      </c>
+      <c r="B159" t="n">
+        <v>1</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>SPARE NUMBER</t>
+          <t>CHAIR</t>
         </is>
       </c>
       <c r="F159" s="5" t="n"/>
       <c r="G159" s="6" t="n"/>
+      <c r="S159" t="inlineStr">
+        <is>
+          <t>BY OS&amp;E</t>
+        </is>
+      </c>
     </row>
     <row r="160">
-      <c r="A160" t="n">
-        <v>171</v>
-      </c>
-      <c r="B160" t="n">
-        <v>1</v>
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>162-170</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>CONDIMENT COUNTER</t>
-        </is>
-      </c>
-      <c r="D160" t="n">
-        <v>120</v>
-      </c>
-      <c r="E160" t="n">
-        <v>1</v>
-      </c>
-      <c r="F160" s="5" t="n">
-        <v>40</v>
-      </c>
-      <c r="G160" s="6">
-        <f>IF(E160&gt;1,(1.732*D160*F160)/1000,(D160*F160)/1000)</f>
-        <v/>
-      </c>
-      <c r="S160" t="inlineStr">
-        <is>
-          <t>MILLWORK / BY GENERAL CONTRACTOR</t>
-        </is>
-      </c>
+          <t>SPARE NUMBER</t>
+        </is>
+      </c>
+      <c r="F160" s="5" t="n"/>
+      <c r="G160" s="6" t="n"/>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>CONDIMENT DISPENSER</t>
-        </is>
-      </c>
-      <c r="F161" s="5" t="n"/>
-      <c r="G161" s="6" t="n"/>
+          <t>CONDIMENT COUNTER</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>120</v>
+      </c>
+      <c r="E161" t="n">
+        <v>1</v>
+      </c>
+      <c r="F161" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="G161" s="6">
+        <f>IF(E161&gt;1,(1.732*D161*F161)/1000,(D161*F161)/1000)</f>
+        <v/>
+      </c>
       <c r="S161" t="inlineStr">
         <is>
-          <t>BY VENDOR</t>
+          <t>MILLWORK / BY GENERAL CONTRACTOR</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B162" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>UTENSIL DISPENSER</t>
+          <t>CONDIMENT DISPENSER</t>
         </is>
       </c>
       <c r="F162" s="5" t="n"/>
@@ -4531,14 +4542,14 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B163" t="n">
         <v>1</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>NAPKIN DISPENSER</t>
+          <t>UTENSIL DISPENSER</t>
         </is>
       </c>
       <c r="F163" s="5" t="n"/>
@@ -4551,81 +4562,84 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>175</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>174</v>
+      </c>
+      <c r="B164" t="n">
+        <v>1</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>SPARE NUMBER</t>
+          <t>NAPKIN DISPENSER</t>
         </is>
       </c>
       <c r="F164" s="5" t="n"/>
       <c r="G164" s="6" t="n"/>
+      <c r="S164" t="inlineStr">
+        <is>
+          <t>BY VENDOR</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>176</v>
-      </c>
-      <c r="B165" t="n">
-        <v>1</v>
+        <v>175</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>TRASH CHUTE</t>
+          <t>SPARE NUMBER</t>
         </is>
       </c>
       <c r="F165" s="5" t="n"/>
       <c r="G165" s="6" t="n"/>
-      <c r="S165" t="inlineStr">
-        <is>
-          <t>CUSTOM FABRICATION PART OF ITEM #171</t>
-        </is>
-      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B166" t="n">
         <v>1</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>TRASH RECEPTACLE</t>
+          <t>TRASH CHUTE</t>
         </is>
       </c>
       <c r="F166" s="5" t="n"/>
       <c r="G166" s="6" t="n"/>
       <c r="S166" t="inlineStr">
         <is>
-          <t>WITH LID AND DOLLY</t>
+          <t>CUSTOM FABRICATION PART OF ITEM #171</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>178</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>177</v>
+      </c>
+      <c r="B167" t="n">
+        <v>1</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>SPARE NUMBER</t>
+          <t>TRASH RECEPTACLE</t>
         </is>
       </c>
       <c r="F167" s="5" t="n"/>
       <c r="G167" s="6" t="n"/>
+      <c r="S167" t="inlineStr">
+        <is>
+          <t>WITH LID AND DOLLY</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -4641,10 +4655,8 @@
       <c r="G168" s="6" t="n"/>
     </row>
     <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>180-200</t>
-        </is>
+      <c r="A169" t="n">
+        <v>179</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -4660,36 +4672,55 @@
       <c r="G169" s="6" t="n"/>
     </row>
     <row r="170">
-      <c r="A170" t="inlineStr"/>
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>180-200</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>SPARE NUMBER</t>
+        </is>
+      </c>
+      <c r="F170" s="5" t="n"/>
+      <c r="G170" s="6" t="n"/>
     </row>
     <row r="171">
-      <c r="A171" s="7" t="inlineStr">
+      <c r="A171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="7" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="G171" s="8">
-        <f>SUM(G7:G170)</f>
-        <v/>
-      </c>
-      <c r="J171" s="8">
-        <f>SUM(J7:J170)</f>
-        <v/>
-      </c>
-      <c r="M171" s="8">
-        <f>SUM(M7:M170)</f>
-        <v/>
-      </c>
-      <c r="N171" s="8">
-        <f>SUM(N7:N170)</f>
-        <v/>
-      </c>
-      <c r="O171" s="8">
-        <f>SUM(O7:O170)</f>
-        <v/>
-      </c>
-      <c r="P171" s="8">
-        <f>SUM(P7:P170)</f>
+      <c r="G172" s="8">
+        <f>SUM(G7:G171)</f>
+        <v/>
+      </c>
+      <c r="J172" s="8">
+        <f>SUM(J7:J171)</f>
+        <v/>
+      </c>
+      <c r="M172" s="8">
+        <f>SUM(M7:M171)</f>
+        <v/>
+      </c>
+      <c r="N172" s="8">
+        <f>SUM(N7:N171)</f>
+        <v/>
+      </c>
+      <c r="O172" s="8">
+        <f>SUM(O7:O171)</f>
+        <v/>
+      </c>
+      <c r="P172" s="8">
+        <f>SUM(P7:P171)</f>
         <v/>
       </c>
     </row>

--- a/Bulk Loads/1424/_PRELIMINARY UTILITY EXPORT - FS_formatted.xlsx
+++ b/Bulk Loads/1424/_PRELIMINARY UTILITY EXPORT - FS_formatted.xlsx
@@ -69,12 +69,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -507,7 +513,7 @@
     <row r="4" ht="27" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>August 06, 2024</t>
+          <t>August 29, 2024</t>
         </is>
       </c>
     </row>
@@ -638,10 +644,10 @@
       <c r="S8" s="4" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" t="n">
+      <c r="A9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C9" t="inlineStr">
@@ -655,10 +661,10 @@
       <c r="E9" t="n">
         <v>1</v>
       </c>
-      <c r="F9" s="5" t="n">
+      <c r="F9" s="7" t="n">
         <v>5.7</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="8">
         <f>IF(E9&gt;1,(1.732*D9*F9)/1000,(D9*F9)/1000)</f>
         <v/>
       </c>
@@ -669,10 +675,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="inlineStr">
@@ -686,10 +692,10 @@
       <c r="E10" t="n">
         <v>1</v>
       </c>
-      <c r="F10" s="5" t="n">
+      <c r="F10" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="8">
         <f>IF(E10&gt;1,(1.732*D10*F10)/1000,(D10*F10)/1000)</f>
         <v/>
       </c>
@@ -700,10 +706,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C11" t="inlineStr">
@@ -711,8 +717,8 @@
           <t>WALL CABINET</t>
         </is>
       </c>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="6" t="n"/>
+      <c r="F11" s="7" t="n"/>
+      <c r="G11" s="8" t="n"/>
       <c r="S11" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
@@ -720,10 +726,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C12" t="inlineStr">
@@ -737,10 +743,10 @@
       <c r="E12" t="n">
         <v>1</v>
       </c>
-      <c r="F12" s="5" t="n">
+      <c r="F12" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="8">
         <f>IF(E12&gt;1,(1.732*D12*F12)/1000,(D12*F12)/1000)</f>
         <v/>
       </c>
@@ -751,10 +757,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="A13" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C13" t="inlineStr">
@@ -768,10 +774,10 @@
       <c r="E13" t="n">
         <v>1</v>
       </c>
-      <c r="F13" s="5" t="n">
+      <c r="F13" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="8">
         <f>IF(E13&gt;1,(1.732*D13*F13)/1000,(D13*F13)/1000)</f>
         <v/>
       </c>
@@ -782,10 +788,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
+      <c r="A14" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C14" t="inlineStr">
@@ -793,8 +799,8 @@
           <t>CHAIR</t>
         </is>
       </c>
-      <c r="F14" s="5" t="n"/>
-      <c r="G14" s="6" t="n"/>
+      <c r="F14" s="7" t="n"/>
+      <c r="G14" s="8" t="n"/>
       <c r="S14" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
@@ -802,10 +808,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
+      <c r="A15" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C15" t="inlineStr">
@@ -819,10 +825,10 @@
       <c r="E15" t="n">
         <v>1</v>
       </c>
-      <c r="F15" s="5" t="n">
+      <c r="F15" s="7" t="n">
         <v>1.4</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="8">
         <f>IF(E15&gt;1,(1.732*D15*F15)/1000,(D15*F15)/1000)</f>
         <v/>
       </c>
@@ -833,10 +839,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
+      <c r="A16" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" s="6" t="n">
         <v>6</v>
       </c>
       <c r="C16" t="inlineStr">
@@ -844,8 +850,8 @@
           <t>DRY STORAGE SHELVING</t>
         </is>
       </c>
-      <c r="F16" s="5" t="n"/>
-      <c r="G16" s="6" t="n"/>
+      <c r="F16" s="7" t="n"/>
+      <c r="G16" s="8" t="n"/>
       <c r="S16" t="inlineStr">
         <is>
           <t>FIXED FIVE TIER</t>
@@ -853,10 +859,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
+      <c r="A17" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" s="6" t="n">
         <v>2</v>
       </c>
       <c r="C17" t="inlineStr">
@@ -864,14 +870,14 @@
           <t>DUNNAGE RACK</t>
         </is>
       </c>
-      <c r="F17" s="5" t="n"/>
-      <c r="G17" s="6" t="n"/>
+      <c r="F17" s="7" t="n"/>
+      <c r="G17" s="8" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" t="n">
+      <c r="A18" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -881,14 +887,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F18" s="5" t="n"/>
-      <c r="G18" s="6" t="n"/>
+      <c r="F18" s="7" t="n"/>
+      <c r="G18" s="8" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" t="n">
+      <c r="A19" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" s="6" t="n">
         <v>2</v>
       </c>
       <c r="C19" t="inlineStr">
@@ -896,8 +902,8 @@
           <t>CO2 TANK</t>
         </is>
       </c>
-      <c r="F19" s="5" t="n"/>
-      <c r="G19" s="6" t="n"/>
+      <c r="F19" s="7" t="n"/>
+      <c r="G19" s="8" t="n"/>
       <c r="S19" t="inlineStr">
         <is>
           <t>BY VENDOR</t>
@@ -905,10 +911,10 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
+      <c r="A20" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C20" t="inlineStr">
@@ -922,10 +928,10 @@
       <c r="E20" t="n">
         <v>1</v>
       </c>
-      <c r="F20" s="5" t="n">
+      <c r="F20" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="8">
         <f>IF(E20&gt;1,(1.732*D20*F20)/1000,(D20*F20)/1000)</f>
         <v/>
       </c>
@@ -941,10 +947,10 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
+      <c r="A21" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C21" t="inlineStr">
@@ -952,8 +958,8 @@
           <t>FLOOR TROUGH &amp; GRATE</t>
         </is>
       </c>
-      <c r="F21" s="5" t="n"/>
-      <c r="G21" s="6" t="n"/>
+      <c r="F21" s="7" t="n"/>
+      <c r="G21" s="8" t="n"/>
       <c r="L21" t="inlineStr">
         <is>
           <t>2"</t>
@@ -966,10 +972,10 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
+      <c r="A22" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C22" t="inlineStr">
@@ -983,19 +989,19 @@
       <c r="E22" t="n">
         <v>1</v>
       </c>
-      <c r="F22" s="5" t="n">
+      <c r="F22" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="8">
         <f>IF(E22&gt;1,(1.732*D22*F22)/1000,(D22*F22)/1000)</f>
         <v/>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
+      <c r="A23" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1005,14 +1011,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="6" t="n"/>
+      <c r="F23" s="7" t="n"/>
+      <c r="G23" s="8" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" t="n">
+      <c r="A24" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C24" t="inlineStr">
@@ -1026,10 +1032,10 @@
       <c r="E24" t="n">
         <v>3</v>
       </c>
-      <c r="F24" s="5" t="n">
+      <c r="F24" s="7" t="n">
         <v>4.7</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="8">
         <f>IF(E24&gt;1,(1.732*D24*F24)/1000,(D24*F24)/1000)</f>
         <v/>
       </c>
@@ -1050,10 +1056,10 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
+      <c r="A25" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C25" t="inlineStr">
@@ -1067,10 +1073,10 @@
       <c r="E25" t="n">
         <v>3</v>
       </c>
-      <c r="F25" s="5" t="n">
+      <c r="F25" s="7" t="n">
         <v>11.4</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="8">
         <f>IF(E25&gt;1,(1.732*D25*F25)/1000,(D25*F25)/1000)</f>
         <v/>
       </c>
@@ -1091,10 +1097,10 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
+      <c r="A26" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C26" t="inlineStr">
@@ -1108,10 +1114,10 @@
       <c r="E26" t="n">
         <v>1</v>
       </c>
-      <c r="F26" s="5" t="n">
+      <c r="F26" s="7" t="n">
         <v>1.8</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="8">
         <f>IF(E26&gt;1,(1.732*D26*F26)/1000,(D26*F26)/1000)</f>
         <v/>
       </c>
@@ -1127,10 +1133,10 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
+      <c r="A27" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1140,14 +1146,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F27" s="5" t="n"/>
-      <c r="G27" s="6" t="n"/>
+      <c r="F27" s="7" t="n"/>
+      <c r="G27" s="8" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" t="n">
+      <c r="A28" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1157,14 +1163,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F28" s="5" t="n"/>
-      <c r="G28" s="6" t="n"/>
+      <c r="F28" s="7" t="n"/>
+      <c r="G28" s="8" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" t="n">
+      <c r="A29" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29" s="6" t="n">
         <v>4</v>
       </c>
       <c r="C29" t="inlineStr">
@@ -1172,8 +1178,8 @@
           <t>COOLER STORAGE SHELVING</t>
         </is>
       </c>
-      <c r="F29" s="5" t="n"/>
-      <c r="G29" s="6" t="n"/>
+      <c r="F29" s="7" t="n"/>
+      <c r="G29" s="8" t="n"/>
       <c r="S29" t="inlineStr">
         <is>
           <t>MOBILE FIVE TIER</t>
@@ -1181,10 +1187,10 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
+      <c r="A30" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C30" t="inlineStr">
@@ -1198,19 +1204,19 @@
       <c r="E30" t="n">
         <v>1</v>
       </c>
-      <c r="F30" s="5" t="n">
+      <c r="F30" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="8">
         <f>IF(E30&gt;1,(1.732*D30*F30)/1000,(D30*F30)/1000)</f>
         <v/>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
+      <c r="A31" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C31" t="inlineStr">
@@ -1224,10 +1230,10 @@
       <c r="E31" t="n">
         <v>1</v>
       </c>
-      <c r="F31" s="5" t="n">
+      <c r="F31" s="7" t="n">
         <v>9.1</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31" s="8">
         <f>IF(E31&gt;1,(1.732*D31*F31)/1000,(D31*F31)/1000)</f>
         <v/>
       </c>
@@ -1243,10 +1249,10 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
+      <c r="A32" s="5" t="n">
         <v>24</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32" s="6" t="n">
         <v>5</v>
       </c>
       <c r="C32" t="inlineStr">
@@ -1254,8 +1260,8 @@
           <t>FREEZER STORAGE SHELVING</t>
         </is>
       </c>
-      <c r="F32" s="5" t="n"/>
-      <c r="G32" s="6" t="n"/>
+      <c r="F32" s="7" t="n"/>
+      <c r="G32" s="8" t="n"/>
       <c r="S32" t="inlineStr">
         <is>
           <t>MOBILE FIVE TIER</t>
@@ -1263,10 +1269,10 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
+      <c r="A33" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1276,8 +1282,8 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F33" s="5" t="n"/>
-      <c r="G33" s="6" t="n"/>
+      <c r="F33" s="7" t="n"/>
+      <c r="G33" s="8" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
@@ -1305,10 +1311,10 @@
       <c r="S34" s="4" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" t="n">
+      <c r="A35" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C35" t="inlineStr">
@@ -1316,8 +1322,8 @@
           <t>HAND SINK</t>
         </is>
       </c>
-      <c r="F35" s="5" t="n"/>
-      <c r="G35" s="6" t="n"/>
+      <c r="F35" s="7" t="n"/>
+      <c r="G35" s="8" t="n"/>
       <c r="H35" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -1343,10 +1349,10 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
+      <c r="A36" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C36" t="inlineStr">
@@ -1354,8 +1360,8 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F36" s="5" t="n"/>
-      <c r="G36" s="6" t="n"/>
+      <c r="F36" s="7" t="n"/>
+      <c r="G36" s="8" t="n"/>
       <c r="S36" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
@@ -1363,10 +1369,10 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
+      <c r="A37" s="5" t="n">
         <v>28</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C37" t="inlineStr">
@@ -1380,10 +1386,10 @@
       <c r="E37" t="n">
         <v>1</v>
       </c>
-      <c r="F37" s="5" t="n">
+      <c r="F37" s="7" t="n">
         <v>40</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G37" s="8">
         <f>IF(E37&gt;1,(1.732*D37*F37)/1000,(D37*F37)/1000)</f>
         <v/>
       </c>
@@ -1394,10 +1400,10 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
+      <c r="A38" s="5" t="n">
         <v>29</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1407,14 +1413,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F38" s="5" t="n"/>
-      <c r="G38" s="6" t="n"/>
+      <c r="F38" s="7" t="n"/>
+      <c r="G38" s="8" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" t="n">
+      <c r="A39" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C39" t="inlineStr">
@@ -1428,10 +1434,10 @@
       <c r="E39" t="n">
         <v>1</v>
       </c>
-      <c r="F39" s="5" t="n">
+      <c r="F39" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G39" s="8">
         <f>IF(E39&gt;1,(1.732*D39*F39)/1000,(D39*F39)/1000)</f>
         <v/>
       </c>
@@ -1442,10 +1448,10 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
+      <c r="A40" s="5" t="n">
         <v>31</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C40" t="inlineStr">
@@ -1453,8 +1459,8 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F40" s="5" t="n"/>
-      <c r="G40" s="6" t="n"/>
+      <c r="F40" s="7" t="n"/>
+      <c r="G40" s="8" t="n"/>
       <c r="S40" t="inlineStr">
         <is>
           <t>WITH LID AND DOLLY</t>
@@ -1462,10 +1468,10 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
+      <c r="A41" s="5" t="n">
         <v>32</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C41" t="inlineStr">
@@ -1473,8 +1479,8 @@
           <t>DOUBLE WALL SHELF</t>
         </is>
       </c>
-      <c r="F41" s="5" t="n"/>
-      <c r="G41" s="6" t="n"/>
+      <c r="F41" s="7" t="n"/>
+      <c r="G41" s="8" t="n"/>
       <c r="S41" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -1482,10 +1488,10 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
+      <c r="A42" s="5" t="n">
         <v>33</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C42" t="inlineStr">
@@ -1493,8 +1499,8 @@
           <t>FLOOR TROUGH &amp; GRATE</t>
         </is>
       </c>
-      <c r="F42" s="5" t="n"/>
-      <c r="G42" s="6" t="n"/>
+      <c r="F42" s="7" t="n"/>
+      <c r="G42" s="8" t="n"/>
       <c r="L42" t="inlineStr">
         <is>
           <t>2"</t>
@@ -1507,10 +1513,10 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
+      <c r="A43" s="5" t="n">
         <v>34</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C43" t="inlineStr">
@@ -1524,10 +1530,10 @@
       <c r="E43" t="n">
         <v>1</v>
       </c>
-      <c r="F43" s="5" t="n">
+      <c r="F43" s="7" t="n">
         <v>13.5</v>
       </c>
-      <c r="G43" s="6">
+      <c r="G43" s="8">
         <f>IF(E43&gt;1,(1.732*D43*F43)/1000,(D43*F43)/1000)</f>
         <v/>
       </c>
@@ -1561,10 +1567,10 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
+      <c r="A44" s="5" t="n">
         <v>35</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1574,14 +1580,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F44" s="5" t="n"/>
-      <c r="G44" s="6" t="n"/>
+      <c r="F44" s="7" t="n"/>
+      <c r="G44" s="8" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" t="n">
+      <c r="A45" s="5" t="n">
         <v>36</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C45" t="inlineStr">
@@ -1589,8 +1595,8 @@
           <t>ICE BIN</t>
         </is>
       </c>
-      <c r="F45" s="5" t="n"/>
-      <c r="G45" s="6" t="n"/>
+      <c r="F45" s="7" t="n"/>
+      <c r="G45" s="8" t="n"/>
       <c r="K45" t="inlineStr">
         <is>
           <t>1"</t>
@@ -1603,10 +1609,10 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
+      <c r="A46" s="5" t="n">
         <v>37</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C46" t="inlineStr">
@@ -1614,8 +1620,8 @@
           <t>ICE CART</t>
         </is>
       </c>
-      <c r="F46" s="5" t="n"/>
-      <c r="G46" s="6" t="n"/>
+      <c r="F46" s="7" t="n"/>
+      <c r="G46" s="8" t="n"/>
       <c r="S46" t="inlineStr">
         <is>
           <t>MOBILE 250LBS.</t>
@@ -1623,10 +1629,10 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
+      <c r="A47" s="5" t="n">
         <v>38</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C47" t="inlineStr">
@@ -1634,8 +1640,8 @@
           <t>WATER FILTRATION SYSTEM</t>
         </is>
       </c>
-      <c r="F47" s="5" t="n"/>
-      <c r="G47" s="6" t="n"/>
+      <c r="F47" s="7" t="n"/>
+      <c r="G47" s="8" t="n"/>
       <c r="H47" t="inlineStr">
         <is>
           <t>3/8"</t>
@@ -1648,10 +1654,10 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
+      <c r="A48" s="5" t="n">
         <v>39</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1661,14 +1667,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F48" s="5" t="n"/>
-      <c r="G48" s="6" t="n"/>
+      <c r="F48" s="7" t="n"/>
+      <c r="G48" s="8" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" t="n">
+      <c r="A49" s="5" t="n">
         <v>40</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1678,14 +1684,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F49" s="5" t="n"/>
-      <c r="G49" s="6" t="n"/>
+      <c r="F49" s="7" t="n"/>
+      <c r="G49" s="8" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" t="n">
+      <c r="A50" s="5" t="n">
         <v>41</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C50" t="inlineStr">
@@ -1699,10 +1705,10 @@
       <c r="E50" t="n">
         <v>1</v>
       </c>
-      <c r="F50" s="5" t="n">
+      <c r="F50" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="G50" s="6">
+      <c r="G50" s="8">
         <f>IF(E50&gt;1,(1.732*D50*F50)/1000,(D50*F50)/1000)</f>
         <v/>
       </c>
@@ -1713,10 +1719,10 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
+      <c r="A51" s="5" t="n">
         <v>42</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C51" t="inlineStr">
@@ -1730,10 +1736,10 @@
       <c r="E51" t="n">
         <v>1</v>
       </c>
-      <c r="F51" s="5" t="n">
+      <c r="F51" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="G51" s="6">
+      <c r="G51" s="8">
         <f>IF(E51&gt;1,(1.732*D51*F51)/1000,(D51*F51)/1000)</f>
         <v/>
       </c>
@@ -1744,10 +1750,10 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
+      <c r="A52" s="5" t="n">
         <v>43</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C52" t="inlineStr">
@@ -1755,8 +1761,8 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F52" s="5" t="n"/>
-      <c r="G52" s="6" t="n"/>
+      <c r="F52" s="7" t="n"/>
+      <c r="G52" s="8" t="n"/>
       <c r="S52" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
@@ -1764,10 +1770,10 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
+      <c r="A53" s="5" t="n">
         <v>44</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C53" t="inlineStr">
@@ -1775,8 +1781,8 @@
           <t>HAND SINK</t>
         </is>
       </c>
-      <c r="F53" s="5" t="n"/>
-      <c r="G53" s="6" t="n"/>
+      <c r="F53" s="7" t="n"/>
+      <c r="G53" s="8" t="n"/>
       <c r="H53" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -1802,10 +1808,10 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
+      <c r="A54" s="5" t="n">
         <v>45</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1815,8 +1821,8 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F54" s="5" t="n"/>
-      <c r="G54" s="6" t="n"/>
+      <c r="F54" s="7" t="n"/>
+      <c r="G54" s="8" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
@@ -1844,10 +1850,10 @@
       <c r="S55" s="4" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" t="n">
+      <c r="A56" s="5" t="n">
         <v>46</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C56" t="inlineStr">
@@ -1855,8 +1861,8 @@
           <t>UTILITY RACK</t>
         </is>
       </c>
-      <c r="F56" s="5" t="n"/>
-      <c r="G56" s="6" t="n"/>
+      <c r="F56" s="7" t="n"/>
+      <c r="G56" s="8" t="n"/>
       <c r="S56" t="inlineStr">
         <is>
           <t>MOBILE</t>
@@ -1864,10 +1870,10 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
+      <c r="A57" s="5" t="n">
         <v>47</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C57" t="inlineStr">
@@ -1881,10 +1887,10 @@
       <c r="E57" t="n">
         <v>1</v>
       </c>
-      <c r="F57" s="5" t="n">
+      <c r="F57" s="7" t="n">
         <v>7.6</v>
       </c>
-      <c r="G57" s="6">
+      <c r="G57" s="8">
         <f>IF(E57&gt;1,(1.732*D57*F57)/1000,(D57*F57)/1000)</f>
         <v/>
       </c>
@@ -1895,10 +1901,10 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
+      <c r="A58" s="5" t="n">
         <v>48</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C58" t="inlineStr">
@@ -1912,10 +1918,10 @@
       <c r="E58" t="n">
         <v>1</v>
       </c>
-      <c r="F58" s="5" t="n">
+      <c r="F58" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="G58" s="6">
+      <c r="G58" s="8">
         <f>IF(E58&gt;1,(1.732*D58*F58)/1000,(D58*F58)/1000)</f>
         <v/>
       </c>
@@ -1932,10 +1938,10 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
+      <c r="A59" s="5" t="n">
         <v>49</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1945,14 +1951,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F59" s="5" t="n"/>
-      <c r="G59" s="6" t="n"/>
+      <c r="F59" s="7" t="n"/>
+      <c r="G59" s="8" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" t="n">
+      <c r="A60" s="5" t="n">
         <v>50</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1962,14 +1968,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F60" s="5" t="n"/>
-      <c r="G60" s="6" t="n"/>
+      <c r="F60" s="7" t="n"/>
+      <c r="G60" s="8" t="n"/>
     </row>
     <row r="61">
-      <c r="A61" t="n">
+      <c r="A61" s="5" t="n">
         <v>51</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C61" t="inlineStr">
@@ -1983,10 +1989,10 @@
       <c r="E61" t="n">
         <v>3</v>
       </c>
-      <c r="F61" s="5" t="n">
+      <c r="F61" s="7" t="n">
         <v>31</v>
       </c>
-      <c r="G61" s="6">
+      <c r="G61" s="8">
         <f>IF(E61&gt;1,(1.732*D61*F61)/1000,(D61*F61)/1000)</f>
         <v/>
       </c>
@@ -1997,10 +2003,10 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="n">
+      <c r="A62" s="5" t="n">
         <v>51</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C62" t="inlineStr">
@@ -2014,10 +2020,10 @@
       <c r="E62" t="n">
         <v>1</v>
       </c>
-      <c r="F62" s="5" t="n">
+      <c r="F62" s="7" t="n">
         <v>31</v>
       </c>
-      <c r="G62" s="6">
+      <c r="G62" s="8">
         <f>IF(E62&gt;1,(1.732*D62*F62)/1000,(D62*F62)/1000)</f>
         <v/>
       </c>
@@ -2028,10 +2034,10 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
+      <c r="A63" s="5" t="n">
         <v>52</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C63" t="inlineStr">
@@ -2045,10 +2051,10 @@
       <c r="E63" t="n">
         <v>3</v>
       </c>
-      <c r="F63" s="5" t="n">
+      <c r="F63" s="7" t="n">
         <v>49</v>
       </c>
-      <c r="G63" s="6">
+      <c r="G63" s="8">
         <f>IF(E63&gt;1,(1.732*D63*F63)/1000,(D63*F63)/1000)</f>
         <v/>
       </c>
@@ -2059,10 +2065,10 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
+      <c r="A64" s="5" t="n">
         <v>53</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C64" t="inlineStr">
@@ -2076,10 +2082,10 @@
       <c r="E64" t="n">
         <v>3</v>
       </c>
-      <c r="F64" s="5" t="n">
+      <c r="F64" s="7" t="n">
         <v>58</v>
       </c>
-      <c r="G64" s="6">
+      <c r="G64" s="8">
         <f>IF(E64&gt;1,(1.732*D64*F64)/1000,(D64*F64)/1000)</f>
         <v/>
       </c>
@@ -2090,10 +2096,10 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="n">
+      <c r="A65" s="5" t="n">
         <v>54</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C65" t="inlineStr">
@@ -2107,10 +2113,10 @@
       <c r="E65" t="n">
         <v>1</v>
       </c>
-      <c r="F65" s="5" t="n">
+      <c r="F65" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="G65" s="6">
+      <c r="G65" s="8">
         <f>IF(E65&gt;1,(1.732*D65*F65)/1000,(D65*F65)/1000)</f>
         <v/>
       </c>
@@ -2121,10 +2127,10 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="n">
+      <c r="A66" s="5" t="n">
         <v>55</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66" s="6" t="n">
         <v>2</v>
       </c>
       <c r="C66" t="inlineStr">
@@ -2138,10 +2144,10 @@
       <c r="E66" t="n">
         <v>1</v>
       </c>
-      <c r="F66" s="5" t="n">
+      <c r="F66" s="7" t="n">
         <v>9.6</v>
       </c>
-      <c r="G66" s="6">
+      <c r="G66" s="8">
         <f>IF(E66&gt;1,(1.732*D66*F66)/1000,(D66*F66)/1000)</f>
         <v/>
       </c>
@@ -2152,10 +2158,10 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="n">
+      <c r="A67" s="5" t="n">
         <v>56</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C67" t="inlineStr">
@@ -2169,10 +2175,10 @@
       <c r="E67" t="n">
         <v>1</v>
       </c>
-      <c r="F67" s="5" t="n">
+      <c r="F67" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="G67" s="6">
+      <c r="G67" s="8">
         <f>IF(E67&gt;1,(1.732*D67*F67)/1000,(D67*F67)/1000)</f>
         <v/>
       </c>
@@ -2183,10 +2189,10 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="n">
+      <c r="A68" s="5" t="n">
         <v>57</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C68" t="inlineStr">
@@ -2194,8 +2200,8 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F68" s="5" t="n"/>
-      <c r="G68" s="6" t="n"/>
+      <c r="F68" s="7" t="n"/>
+      <c r="G68" s="8" t="n"/>
       <c r="S68" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
@@ -2203,10 +2209,10 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="n">
+      <c r="A69" s="5" t="n">
         <v>58</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C69" t="inlineStr">
@@ -2214,8 +2220,8 @@
           <t>HAND SINK</t>
         </is>
       </c>
-      <c r="F69" s="5" t="n"/>
-      <c r="G69" s="6" t="n"/>
+      <c r="F69" s="7" t="n"/>
+      <c r="G69" s="8" t="n"/>
       <c r="H69" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -2241,10 +2247,10 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="n">
+      <c r="A70" s="5" t="n">
         <v>59</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C70" t="inlineStr">
@@ -2258,10 +2264,10 @@
       <c r="E70" t="n">
         <v>1</v>
       </c>
-      <c r="F70" s="5" t="n">
+      <c r="F70" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="G70" s="6">
+      <c r="G70" s="8">
         <f>IF(E70&gt;1,(1.732*D70*F70)/1000,(D70*F70)/1000)</f>
         <v/>
       </c>
@@ -2272,10 +2278,10 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="n">
+      <c r="A71" s="5" t="n">
         <v>60</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2285,8 +2291,8 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F71" s="5" t="n"/>
-      <c r="G71" s="6" t="n"/>
+      <c r="F71" s="7" t="n"/>
+      <c r="G71" s="8" t="n"/>
     </row>
     <row r="72">
       <c r="A72" s="3" t="inlineStr">
@@ -2314,10 +2320,10 @@
       <c r="S72" s="4" t="n"/>
     </row>
     <row r="73">
-      <c r="A73" t="n">
+      <c r="A73" s="5" t="n">
         <v>61</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C73" t="inlineStr">
@@ -2325,8 +2331,8 @@
           <t>DRY STORAGE SHELVING</t>
         </is>
       </c>
-      <c r="F73" s="5" t="n"/>
-      <c r="G73" s="6" t="n"/>
+      <c r="F73" s="7" t="n"/>
+      <c r="G73" s="8" t="n"/>
       <c r="S73" t="inlineStr">
         <is>
           <t>FIXED FIVE TIER</t>
@@ -2334,10 +2340,10 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="n">
+      <c r="A74" s="5" t="n">
         <v>62</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C74" t="inlineStr">
@@ -2345,8 +2351,8 @@
           <t>POT AND PAN SHELVING</t>
         </is>
       </c>
-      <c r="F74" s="5" t="n"/>
-      <c r="G74" s="6" t="n"/>
+      <c r="F74" s="7" t="n"/>
+      <c r="G74" s="8" t="n"/>
       <c r="S74" t="inlineStr">
         <is>
           <t>MOBILE FOUR TIER</t>
@@ -2354,10 +2360,10 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="n">
+      <c r="A75" s="5" t="n">
         <v>63</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C75" t="inlineStr">
@@ -2365,8 +2371,8 @@
           <t>HAND SINK</t>
         </is>
       </c>
-      <c r="F75" s="5" t="n"/>
-      <c r="G75" s="6" t="n"/>
+      <c r="F75" s="7" t="n"/>
+      <c r="G75" s="8" t="n"/>
       <c r="H75" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -2392,10 +2398,10 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="n">
+      <c r="A76" s="5" t="n">
         <v>64</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C76" t="inlineStr">
@@ -2403,8 +2409,8 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F76" s="5" t="n"/>
-      <c r="G76" s="6" t="n"/>
+      <c r="F76" s="7" t="n"/>
+      <c r="G76" s="8" t="n"/>
       <c r="S76" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
@@ -2412,10 +2418,10 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="n">
+      <c r="A77" s="5" t="n">
         <v>65</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2425,14 +2431,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F77" s="5" t="n"/>
-      <c r="G77" s="6" t="n"/>
+      <c r="F77" s="7" t="n"/>
+      <c r="G77" s="8" t="n"/>
     </row>
     <row r="78">
-      <c r="A78" t="n">
+      <c r="A78" s="5" t="n">
         <v>66</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C78" t="inlineStr">
@@ -2440,8 +2446,8 @@
           <t>POT SINK</t>
         </is>
       </c>
-      <c r="F78" s="5" t="n"/>
-      <c r="G78" s="6" t="n"/>
+      <c r="F78" s="7" t="n"/>
+      <c r="G78" s="8" t="n"/>
       <c r="H78" t="inlineStr">
         <is>
           <t>(2)3/4"</t>
@@ -2467,10 +2473,10 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
+      <c r="A79" s="5" t="n">
         <v>67</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C79" t="inlineStr">
@@ -2478,8 +2484,8 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F79" s="5" t="n"/>
-      <c r="G79" s="6" t="n"/>
+      <c r="F79" s="7" t="n"/>
+      <c r="G79" s="8" t="n"/>
       <c r="S79" t="inlineStr">
         <is>
           <t>WITH LID AND DOLLY</t>
@@ -2487,10 +2493,10 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
+      <c r="A80" s="5" t="n">
         <v>68</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C80" t="inlineStr">
@@ -2498,8 +2504,8 @@
           <t>POT SHELF</t>
         </is>
       </c>
-      <c r="F80" s="5" t="n"/>
-      <c r="G80" s="6" t="n"/>
+      <c r="F80" s="7" t="n"/>
+      <c r="G80" s="8" t="n"/>
       <c r="S80" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -2507,10 +2513,10 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="n">
+      <c r="A81" s="5" t="n">
         <v>69</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2520,14 +2526,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F81" s="5" t="n"/>
-      <c r="G81" s="6" t="n"/>
+      <c r="F81" s="7" t="n"/>
+      <c r="G81" s="8" t="n"/>
     </row>
     <row r="82">
-      <c r="A82" t="n">
+      <c r="A82" s="5" t="n">
         <v>70</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2537,14 +2543,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F82" s="5" t="n"/>
-      <c r="G82" s="6" t="n"/>
+      <c r="F82" s="7" t="n"/>
+      <c r="G82" s="8" t="n"/>
     </row>
     <row r="83">
-      <c r="A83" t="n">
+      <c r="A83" s="5" t="n">
         <v>71</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C83" t="inlineStr">
@@ -2558,10 +2564,10 @@
       <c r="E83" t="n">
         <v>1</v>
       </c>
-      <c r="F83" s="5" t="n">
+      <c r="F83" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="G83" s="6">
+      <c r="G83" s="8">
         <f>IF(E83&gt;1,(1.732*D83*F83)/1000,(D83*F83)/1000)</f>
         <v/>
       </c>
@@ -2585,10 +2591,10 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="n">
+      <c r="A84" s="5" t="n">
         <v>72</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C84" t="inlineStr">
@@ -2596,8 +2602,8 @@
           <t>FLOOR TROUGH &amp; GRATE</t>
         </is>
       </c>
-      <c r="F84" s="5" t="n"/>
-      <c r="G84" s="6" t="n"/>
+      <c r="F84" s="7" t="n"/>
+      <c r="G84" s="8" t="n"/>
       <c r="L84" t="inlineStr">
         <is>
           <t>2"</t>
@@ -2610,10 +2616,10 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="n">
+      <c r="A85" s="5" t="n">
         <v>73</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C85" t="inlineStr">
@@ -2621,8 +2627,8 @@
           <t>CLEAN DISH STORAGE SHELVING</t>
         </is>
       </c>
-      <c r="F85" s="5" t="n"/>
-      <c r="G85" s="6" t="n"/>
+      <c r="F85" s="7" t="n"/>
+      <c r="G85" s="8" t="n"/>
       <c r="S85" t="inlineStr">
         <is>
           <t>FIXED FIVE TIER</t>
@@ -2630,10 +2636,10 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="n">
+      <c r="A86" s="5" t="n">
         <v>74</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2643,14 +2649,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F86" s="5" t="n"/>
-      <c r="G86" s="6" t="n"/>
+      <c r="F86" s="7" t="n"/>
+      <c r="G86" s="8" t="n"/>
     </row>
     <row r="87">
-      <c r="A87" t="n">
+      <c r="A87" s="5" t="n">
         <v>75</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2660,14 +2666,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F87" s="5" t="n"/>
-      <c r="G87" s="6" t="n"/>
+      <c r="F87" s="7" t="n"/>
+      <c r="G87" s="8" t="n"/>
     </row>
     <row r="88">
-      <c r="A88" t="n">
+      <c r="A88" s="5" t="n">
         <v>76</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C88" t="inlineStr">
@@ -2675,8 +2681,8 @@
           <t>MOP SINK</t>
         </is>
       </c>
-      <c r="F88" s="5" t="n"/>
-      <c r="G88" s="6" t="n"/>
+      <c r="F88" s="7" t="n"/>
+      <c r="G88" s="8" t="n"/>
       <c r="L88" t="inlineStr">
         <is>
           <t>2"</t>
@@ -2689,10 +2695,10 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="n">
+      <c r="A89" s="5" t="n">
         <v>77</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C89" t="inlineStr">
@@ -2700,8 +2706,8 @@
           <t>HOSE BIBB</t>
         </is>
       </c>
-      <c r="F89" s="5" t="n"/>
-      <c r="G89" s="6" t="n"/>
+      <c r="F89" s="7" t="n"/>
+      <c r="G89" s="8" t="n"/>
       <c r="H89" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -2719,10 +2725,10 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="n">
+      <c r="A90" s="5" t="n">
         <v>78</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C90" t="inlineStr">
@@ -2730,8 +2736,8 @@
           <t>WALL SHELF</t>
         </is>
       </c>
-      <c r="F90" s="5" t="n"/>
-      <c r="G90" s="6" t="n"/>
+      <c r="F90" s="7" t="n"/>
+      <c r="G90" s="8" t="n"/>
       <c r="S90" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -2739,10 +2745,10 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="n">
+      <c r="A91" s="5" t="n">
         <v>79</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2752,14 +2758,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F91" s="5" t="n"/>
-      <c r="G91" s="6" t="n"/>
+      <c r="F91" s="7" t="n"/>
+      <c r="G91" s="8" t="n"/>
     </row>
     <row r="92">
-      <c r="A92" t="n">
+      <c r="A92" s="5" t="n">
         <v>80</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2769,14 +2775,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F92" s="5" t="n"/>
-      <c r="G92" s="6" t="n"/>
+      <c r="F92" s="7" t="n"/>
+      <c r="G92" s="8" t="n"/>
     </row>
     <row r="93">
-      <c r="A93" t="n">
+      <c r="A93" s="5" t="n">
         <v>81</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C93" t="inlineStr">
@@ -2784,8 +2790,8 @@
           <t>DETERGENT STORAGE SHELVING</t>
         </is>
       </c>
-      <c r="F93" s="5" t="n"/>
-      <c r="G93" s="6" t="n"/>
+      <c r="F93" s="7" t="n"/>
+      <c r="G93" s="8" t="n"/>
       <c r="S93" t="inlineStr">
         <is>
           <t>FIXED FIVE TIER</t>
@@ -2793,10 +2799,10 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="n">
+      <c r="A94" s="5" t="n">
         <v>82</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C94" t="inlineStr">
@@ -2804,8 +2810,8 @@
           <t>MOP RACK</t>
         </is>
       </c>
-      <c r="F94" s="5" t="n"/>
-      <c r="G94" s="6" t="n"/>
+      <c r="F94" s="7" t="n"/>
+      <c r="G94" s="8" t="n"/>
       <c r="S94" t="inlineStr">
         <is>
           <t>BY GENERAL CONTRACTOR</t>
@@ -2813,10 +2819,10 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="n">
+      <c r="A95" s="5" t="n">
         <v>83</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C95" t="inlineStr">
@@ -2830,10 +2836,10 @@
       <c r="E95" t="n">
         <v>1</v>
       </c>
-      <c r="F95" s="5" t="n">
+      <c r="F95" s="7" t="n">
         <v>5.7</v>
       </c>
-      <c r="G95" s="6">
+      <c r="G95" s="8">
         <f>IF(E95&gt;1,(1.732*D95*F95)/1000,(D95*F95)/1000)</f>
         <v/>
       </c>
@@ -2844,10 +2850,10 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="n">
+      <c r="A96" s="5" t="n">
         <v>84</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C96" t="inlineStr">
@@ -2861,10 +2867,10 @@
       <c r="E96" t="n">
         <v>1</v>
       </c>
-      <c r="F96" s="5" t="n">
+      <c r="F96" s="7" t="n">
         <v>1.4</v>
       </c>
-      <c r="G96" s="6">
+      <c r="G96" s="8">
         <f>IF(E96&gt;1,(1.732*D96*F96)/1000,(D96*F96)/1000)</f>
         <v/>
       </c>
@@ -2875,12 +2881,12 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
+      <c r="A97" s="5" t="inlineStr">
         <is>
           <t>85-100</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2890,8 +2896,8 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F97" s="5" t="n"/>
-      <c r="G97" s="6" t="n"/>
+      <c r="F97" s="7" t="n"/>
+      <c r="G97" s="8" t="n"/>
     </row>
     <row r="98">
       <c r="A98" s="3" t="inlineStr">
@@ -2919,10 +2925,10 @@
       <c r="S98" s="4" t="n"/>
     </row>
     <row r="99">
-      <c r="A99" t="n">
+      <c r="A99" s="5" t="n">
         <v>101</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C99" t="inlineStr">
@@ -2930,14 +2936,14 @@
           <t>REFRIGERATED MERCHANDISER</t>
         </is>
       </c>
-      <c r="F99" s="5" t="n"/>
-      <c r="G99" s="6" t="n"/>
+      <c r="F99" s="7" t="n"/>
+      <c r="G99" s="8" t="n"/>
     </row>
     <row r="100">
-      <c r="A100" t="n">
+      <c r="A100" s="5" t="n">
         <v>102</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C100" t="inlineStr">
@@ -2951,10 +2957,10 @@
       <c r="E100" t="n">
         <v>1</v>
       </c>
-      <c r="F100" s="5" t="n">
+      <c r="F100" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="G100" s="6">
+      <c r="G100" s="8">
         <f>IF(E100&gt;1,(1.732*D100*F100)/1000,(D100*F100)/1000)</f>
         <v/>
       </c>
@@ -2965,10 +2971,10 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="n">
+      <c r="A101" s="5" t="n">
         <v>103</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C101" t="inlineStr">
@@ -2982,10 +2988,10 @@
       <c r="E101" t="n">
         <v>1</v>
       </c>
-      <c r="F101" s="5" t="n">
+      <c r="F101" s="7" t="n">
         <v>14.4</v>
       </c>
-      <c r="G101" s="6">
+      <c r="G101" s="8">
         <f>IF(E101&gt;1,(1.732*D101*F101)/1000,(D101*F101)/1000)</f>
         <v/>
       </c>
@@ -3001,10 +3007,10 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="n">
+      <c r="A102" s="5" t="n">
         <v>104</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C102" t="inlineStr">
@@ -3018,10 +3024,10 @@
       <c r="E102" t="n">
         <v>1</v>
       </c>
-      <c r="F102" s="5" t="n">
+      <c r="F102" s="7" t="n">
         <v>28.3</v>
       </c>
-      <c r="G102" s="6">
+      <c r="G102" s="8">
         <f>IF(E102&gt;1,(1.732*D102*F102)/1000,(D102*F102)/1000)</f>
         <v/>
       </c>
@@ -3037,10 +3043,10 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="n">
+      <c r="A103" s="5" t="n">
         <v>105</v>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B103" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3050,14 +3056,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F103" s="5" t="n"/>
-      <c r="G103" s="6" t="n"/>
+      <c r="F103" s="7" t="n"/>
+      <c r="G103" s="8" t="n"/>
     </row>
     <row r="104">
-      <c r="A104" t="n">
+      <c r="A104" s="5" t="n">
         <v>106</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104" s="6" t="n">
         <v>3</v>
       </c>
       <c r="C104" t="inlineStr">
@@ -3065,14 +3071,14 @@
           <t>CUP DISPENSER</t>
         </is>
       </c>
-      <c r="F104" s="5" t="n"/>
-      <c r="G104" s="6" t="n"/>
+      <c r="F104" s="7" t="n"/>
+      <c r="G104" s="8" t="n"/>
     </row>
     <row r="105">
-      <c r="A105" t="n">
+      <c r="A105" s="5" t="n">
         <v>107</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C105" t="inlineStr">
@@ -3080,14 +3086,14 @@
           <t>LID DISPENSER</t>
         </is>
       </c>
-      <c r="F105" s="5" t="n"/>
-      <c r="G105" s="6" t="n"/>
+      <c r="F105" s="7" t="n"/>
+      <c r="G105" s="8" t="n"/>
     </row>
     <row r="106">
-      <c r="A106" t="n">
+      <c r="A106" s="5" t="n">
         <v>108</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C106" t="inlineStr">
@@ -3101,10 +3107,10 @@
       <c r="E106" t="n">
         <v>1</v>
       </c>
-      <c r="F106" s="5" t="n">
+      <c r="F106" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="G106" s="6">
+      <c r="G106" s="8">
         <f>IF(E106&gt;1,(1.732*D106*F106)/1000,(D106*F106)/1000)</f>
         <v/>
       </c>
@@ -3120,10 +3126,10 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="n">
+      <c r="A107" s="5" t="n">
         <v>109</v>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B107" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3133,14 +3139,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F107" s="5" t="n"/>
-      <c r="G107" s="6" t="n"/>
+      <c r="F107" s="7" t="n"/>
+      <c r="G107" s="8" t="n"/>
     </row>
     <row r="108">
-      <c r="A108" t="n">
+      <c r="A108" s="5" t="n">
         <v>110</v>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B108" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3150,14 +3156,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F108" s="5" t="n"/>
-      <c r="G108" s="6" t="n"/>
+      <c r="F108" s="7" t="n"/>
+      <c r="G108" s="8" t="n"/>
     </row>
     <row r="109">
-      <c r="A109" t="n">
+      <c r="A109" s="5" t="n">
         <v>111</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C109" t="inlineStr">
@@ -3171,10 +3177,10 @@
       <c r="E109" t="n">
         <v>1</v>
       </c>
-      <c r="F109" s="5" t="n">
+      <c r="F109" s="7" t="n">
         <v>12.1</v>
       </c>
-      <c r="G109" s="6">
+      <c r="G109" s="8">
         <f>IF(E109&gt;1,(1.732*D109*F109)/1000,(D109*F109)/1000)</f>
         <v/>
       </c>
@@ -3208,10 +3214,10 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="n">
+      <c r="A110" s="5" t="n">
         <v>112</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C110" t="inlineStr">
@@ -3219,8 +3225,8 @@
           <t>WATER FILTRATION SYSTEM</t>
         </is>
       </c>
-      <c r="F110" s="5" t="n"/>
-      <c r="G110" s="6" t="n"/>
+      <c r="F110" s="7" t="n"/>
+      <c r="G110" s="8" t="n"/>
       <c r="H110" t="inlineStr">
         <is>
           <t>3/8"</t>
@@ -3233,10 +3239,10 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="n">
+      <c r="A111" s="5" t="n">
         <v>113</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C111" t="inlineStr">
@@ -3244,8 +3250,8 @@
           <t>DROP-IN HAND SINK</t>
         </is>
       </c>
-      <c r="F111" s="5" t="n"/>
-      <c r="G111" s="6" t="n"/>
+      <c r="F111" s="7" t="n"/>
+      <c r="G111" s="8" t="n"/>
       <c r="H111" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -3271,10 +3277,10 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="n">
+      <c r="A112" s="5" t="n">
         <v>114</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C112" t="inlineStr">
@@ -3282,8 +3288,8 @@
           <t>TRASH CHUTE</t>
         </is>
       </c>
-      <c r="F112" s="5" t="n"/>
-      <c r="G112" s="6" t="n"/>
+      <c r="F112" s="7" t="n"/>
+      <c r="G112" s="8" t="n"/>
       <c r="S112" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #102</t>
@@ -3291,10 +3297,10 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="n">
+      <c r="A113" s="5" t="n">
         <v>115</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C113" t="inlineStr">
@@ -3308,10 +3314,10 @@
       <c r="E113" t="n">
         <v>1</v>
       </c>
-      <c r="F113" s="5" t="n">
+      <c r="F113" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="G113" s="6">
+      <c r="G113" s="8">
         <f>IF(E113&gt;1,(1.732*D113*F113)/1000,(D113*F113)/1000)</f>
         <v/>
       </c>
@@ -3322,10 +3328,10 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="n">
+      <c r="A114" s="5" t="n">
         <v>116</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C114" t="inlineStr">
@@ -3333,8 +3339,8 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F114" s="5" t="n"/>
-      <c r="G114" s="6" t="n"/>
+      <c r="F114" s="7" t="n"/>
+      <c r="G114" s="8" t="n"/>
       <c r="S114" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
@@ -3342,10 +3348,10 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="n">
+      <c r="A115" s="5" t="n">
         <v>117</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C115" t="inlineStr">
@@ -3359,10 +3365,10 @@
       <c r="E115" t="n">
         <v>1</v>
       </c>
-      <c r="F115" s="5" t="n">
+      <c r="F115" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="G115" s="6">
+      <c r="G115" s="8">
         <f>IF(E115&gt;1,(1.732*D115*F115)/1000,(D115*F115)/1000)</f>
         <v/>
       </c>
@@ -3373,10 +3379,10 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="n">
+      <c r="A116" s="5" t="n">
         <v>118</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C116" t="inlineStr">
@@ -3384,8 +3390,8 @@
           <t>TRAY PICKUP</t>
         </is>
       </c>
-      <c r="F116" s="5" t="n"/>
-      <c r="G116" s="6" t="n"/>
+      <c r="F116" s="7" t="n"/>
+      <c r="G116" s="8" t="n"/>
       <c r="S116" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
@@ -3393,10 +3399,10 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="n">
+      <c r="A117" s="5" t="n">
         <v>119</v>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="B117" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3406,14 +3412,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F117" s="5" t="n"/>
-      <c r="G117" s="6" t="n"/>
+      <c r="F117" s="7" t="n"/>
+      <c r="G117" s="8" t="n"/>
     </row>
     <row r="118">
-      <c r="A118" t="n">
+      <c r="A118" s="5" t="n">
         <v>120</v>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="B118" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3423,14 +3429,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F118" s="5" t="n"/>
-      <c r="G118" s="6" t="n"/>
+      <c r="F118" s="7" t="n"/>
+      <c r="G118" s="8" t="n"/>
     </row>
     <row r="119">
-      <c r="A119" t="n">
+      <c r="A119" s="5" t="n">
         <v>121</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C119" t="inlineStr">
@@ -3444,19 +3450,19 @@
       <c r="E119" t="n">
         <v>1</v>
       </c>
-      <c r="F119" s="5" t="n">
+      <c r="F119" s="7" t="n">
         <v>9.699999999999999</v>
       </c>
-      <c r="G119" s="6">
+      <c r="G119" s="8">
         <f>IF(E119&gt;1,(1.732*D119*F119)/1000,(D119*F119)/1000)</f>
         <v/>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="n">
+      <c r="A120" s="5" t="n">
         <v>122</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C120" t="inlineStr">
@@ -3464,14 +3470,14 @@
           <t>HEATED DISPLAY CASE</t>
         </is>
       </c>
-      <c r="F120" s="5" t="n"/>
-      <c r="G120" s="6" t="n"/>
+      <c r="F120" s="7" t="n"/>
+      <c r="G120" s="8" t="n"/>
     </row>
     <row r="121">
-      <c r="A121" t="n">
+      <c r="A121" s="5" t="n">
         <v>123</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C121" t="inlineStr">
@@ -3479,14 +3485,14 @@
           <t>HEATED DISPLAY CASE</t>
         </is>
       </c>
-      <c r="F121" s="5" t="n"/>
-      <c r="G121" s="6" t="n"/>
+      <c r="F121" s="7" t="n"/>
+      <c r="G121" s="8" t="n"/>
     </row>
     <row r="122">
-      <c r="A122" t="n">
+      <c r="A122" s="5" t="n">
         <v>124</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122" s="6" t="n">
         <v>2</v>
       </c>
       <c r="C122" t="inlineStr">
@@ -3500,10 +3506,10 @@
       <c r="E122" t="n">
         <v>1</v>
       </c>
-      <c r="F122" s="5" t="n">
+      <c r="F122" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="G122" s="6">
+      <c r="G122" s="8">
         <f>IF(E122&gt;1,(1.732*D122*F122)/1000,(D122*F122)/1000)</f>
         <v/>
       </c>
@@ -3514,10 +3520,10 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="n">
+      <c r="A123" s="5" t="n">
         <v>125</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123" s="6" t="n">
         <v>2</v>
       </c>
       <c r="C123" t="inlineStr">
@@ -3531,10 +3537,10 @@
       <c r="E123" t="n">
         <v>1</v>
       </c>
-      <c r="F123" s="5" t="n">
+      <c r="F123" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="G123" s="6">
+      <c r="G123" s="8">
         <f>IF(E123&gt;1,(1.732*D123*F123)/1000,(D123*F123)/1000)</f>
         <v/>
       </c>
@@ -3545,10 +3551,10 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="n">
+      <c r="A124" s="5" t="n">
         <v>126</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C124" t="inlineStr">
@@ -3562,10 +3568,10 @@
       <c r="E124" t="n">
         <v>1</v>
       </c>
-      <c r="F124" s="5" t="n">
+      <c r="F124" s="7" t="n">
         <v>5.5</v>
       </c>
-      <c r="G124" s="6">
+      <c r="G124" s="8">
         <f>IF(E124&gt;1,(1.732*D124*F124)/1000,(D124*F124)/1000)</f>
         <v/>
       </c>
@@ -3576,10 +3582,10 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="n">
+      <c r="A125" s="5" t="n">
         <v>127</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C125" t="inlineStr">
@@ -3593,10 +3599,10 @@
       <c r="E125" t="n">
         <v>1</v>
       </c>
-      <c r="F125" s="5" t="n">
+      <c r="F125" s="7" t="n">
         <v>7.2</v>
       </c>
-      <c r="G125" s="6">
+      <c r="G125" s="8">
         <f>IF(E125&gt;1,(1.732*D125*F125)/1000,(D125*F125)/1000)</f>
         <v/>
       </c>
@@ -3607,10 +3613,10 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="n">
+      <c r="A126" s="5" t="n">
         <v>128</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C126" t="inlineStr">
@@ -3624,10 +3630,10 @@
       <c r="E126" t="n">
         <v>1</v>
       </c>
-      <c r="F126" s="5" t="n">
+      <c r="F126" s="7" t="n">
         <v>7.2</v>
       </c>
-      <c r="G126" s="6">
+      <c r="G126" s="8">
         <f>IF(E126&gt;1,(1.732*D126*F126)/1000,(D126*F126)/1000)</f>
         <v/>
       </c>
@@ -3638,10 +3644,10 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="n">
+      <c r="A127" s="5" t="n">
         <v>129</v>
       </c>
-      <c r="B127" t="inlineStr">
+      <c r="B127" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3651,14 +3657,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F127" s="5" t="n"/>
-      <c r="G127" s="6" t="n"/>
+      <c r="F127" s="7" t="n"/>
+      <c r="G127" s="8" t="n"/>
     </row>
     <row r="128">
-      <c r="A128" t="n">
+      <c r="A128" s="5" t="n">
         <v>130</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B128" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C128" t="inlineStr">
@@ -3666,8 +3672,8 @@
           <t>PASS THRU SHELF</t>
         </is>
       </c>
-      <c r="F128" s="5" t="n"/>
-      <c r="G128" s="6" t="n"/>
+      <c r="F128" s="7" t="n"/>
+      <c r="G128" s="8" t="n"/>
       <c r="S128" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -3675,10 +3681,10 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="n">
+      <c r="A129" s="5" t="n">
         <v>131</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B129" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C129" t="inlineStr">
@@ -3692,10 +3698,10 @@
       <c r="E129" t="n">
         <v>1</v>
       </c>
-      <c r="F129" s="5" t="n">
+      <c r="F129" s="7" t="n">
         <v>40</v>
       </c>
-      <c r="G129" s="6">
+      <c r="G129" s="8">
         <f>IF(E129&gt;1,(1.732*D129*F129)/1000,(D129*F129)/1000)</f>
         <v/>
       </c>
@@ -3706,10 +3712,10 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="n">
+      <c r="A130" s="5" t="n">
         <v>132</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C130" t="inlineStr">
@@ -3717,8 +3723,8 @@
           <t>WALL CABINET</t>
         </is>
       </c>
-      <c r="F130" s="5" t="n"/>
-      <c r="G130" s="6" t="n"/>
+      <c r="F130" s="7" t="n"/>
+      <c r="G130" s="8" t="n"/>
       <c r="S130" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
@@ -3726,10 +3732,10 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="n">
+      <c r="A131" s="5" t="n">
         <v>133</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B131" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C131" t="inlineStr">
@@ -3737,8 +3743,8 @@
           <t>HAND SINK</t>
         </is>
       </c>
-      <c r="F131" s="5" t="n"/>
-      <c r="G131" s="6" t="n"/>
+      <c r="F131" s="7" t="n"/>
+      <c r="G131" s="8" t="n"/>
       <c r="H131" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -3764,10 +3770,10 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="n">
+      <c r="A132" s="5" t="n">
         <v>134</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C132" t="inlineStr">
@@ -3775,8 +3781,8 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F132" s="5" t="n"/>
-      <c r="G132" s="6" t="n"/>
+      <c r="F132" s="7" t="n"/>
+      <c r="G132" s="8" t="n"/>
       <c r="S132" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
@@ -3784,10 +3790,10 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="n">
+      <c r="A133" s="5" t="n">
         <v>135</v>
       </c>
-      <c r="B133" t="inlineStr">
+      <c r="B133" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3797,14 +3803,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F133" s="5" t="n"/>
-      <c r="G133" s="6" t="n"/>
+      <c r="F133" s="7" t="n"/>
+      <c r="G133" s="8" t="n"/>
     </row>
     <row r="134">
-      <c r="A134" t="n">
+      <c r="A134" s="5" t="n">
         <v>136</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B134" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C134" t="inlineStr">
@@ -3818,10 +3824,10 @@
       <c r="E134" t="n">
         <v>1</v>
       </c>
-      <c r="F134" s="5" t="n">
+      <c r="F134" s="7" t="n">
         <v>40</v>
       </c>
-      <c r="G134" s="6">
+      <c r="G134" s="8">
         <f>IF(E134&gt;1,(1.732*D134*F134)/1000,(D134*F134)/1000)</f>
         <v/>
       </c>
@@ -3832,10 +3838,10 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="n">
+      <c r="A135" s="5" t="n">
         <v>137</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B135" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C135" t="inlineStr">
@@ -3849,10 +3855,10 @@
       <c r="E135" t="n">
         <v>1</v>
       </c>
-      <c r="F135" s="5" t="n">
+      <c r="F135" s="7" t="n">
         <v>14.4</v>
       </c>
-      <c r="G135" s="6">
+      <c r="G135" s="8">
         <f>IF(E135&gt;1,(1.732*D135*F135)/1000,(D135*F135)/1000)</f>
         <v/>
       </c>
@@ -3868,10 +3874,10 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="n">
+      <c r="A136" s="5" t="n">
         <v>138</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B136" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C136" t="inlineStr">
@@ -3885,10 +3891,10 @@
       <c r="E136" t="n">
         <v>1</v>
       </c>
-      <c r="F136" s="5" t="n">
+      <c r="F136" s="7" t="n">
         <v>28.3</v>
       </c>
-      <c r="G136" s="6">
+      <c r="G136" s="8">
         <f>IF(E136&gt;1,(1.732*D136*F136)/1000,(D136*F136)/1000)</f>
         <v/>
       </c>
@@ -3904,10 +3910,10 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="n">
+      <c r="A137" s="5" t="n">
         <v>139</v>
       </c>
-      <c r="B137" t="inlineStr">
+      <c r="B137" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3917,14 +3923,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F137" s="5" t="n"/>
-      <c r="G137" s="6" t="n"/>
+      <c r="F137" s="7" t="n"/>
+      <c r="G137" s="8" t="n"/>
     </row>
     <row r="138">
-      <c r="A138" t="n">
+      <c r="A138" s="5" t="n">
         <v>140</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B138" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C138" t="inlineStr">
@@ -3938,10 +3944,10 @@
       <c r="E138" t="n">
         <v>1</v>
       </c>
-      <c r="F138" s="5" t="n">
+      <c r="F138" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="G138" s="6">
+      <c r="G138" s="8">
         <f>IF(E138&gt;1,(1.732*D138*F138)/1000,(D138*F138)/1000)</f>
         <v/>
       </c>
@@ -3952,10 +3958,10 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="n">
+      <c r="A139" s="5" t="n">
         <v>141</v>
       </c>
-      <c r="B139" t="n">
+      <c r="B139" s="6" t="n">
         <v>2</v>
       </c>
       <c r="C139" t="inlineStr">
@@ -3969,10 +3975,10 @@
       <c r="E139" t="n">
         <v>1</v>
       </c>
-      <c r="F139" s="5" t="n">
+      <c r="F139" s="7" t="n">
         <v>6.3</v>
       </c>
-      <c r="G139" s="6">
+      <c r="G139" s="8">
         <f>IF(E139&gt;1,(1.732*D139*F139)/1000,(D139*F139)/1000)</f>
         <v/>
       </c>
@@ -3983,10 +3989,10 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="n">
+      <c r="A140" s="5" t="n">
         <v>142</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B140" s="6" t="n">
         <v>3</v>
       </c>
       <c r="C140" t="inlineStr">
@@ -4000,10 +4006,10 @@
       <c r="E140" t="n">
         <v>1</v>
       </c>
-      <c r="F140" s="5" t="n">
+      <c r="F140" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="G140" s="6">
+      <c r="G140" s="8">
         <f>IF(E140&gt;1,(1.732*D140*F140)/1000,(D140*F140)/1000)</f>
         <v/>
       </c>
@@ -4014,10 +4020,10 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="n">
+      <c r="A141" s="5" t="n">
         <v>143</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B141" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C141" t="inlineStr">
@@ -4025,8 +4031,8 @@
           <t>ICE WELL</t>
         </is>
       </c>
-      <c r="F141" s="5" t="n"/>
-      <c r="G141" s="6" t="n"/>
+      <c r="F141" s="7" t="n"/>
+      <c r="G141" s="8" t="n"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>1-1/2"</t>
@@ -4039,10 +4045,10 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="n">
+      <c r="A142" s="5" t="n">
         <v>144</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B142" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C142" t="inlineStr">
@@ -4050,8 +4056,8 @@
           <t>DUMP SINK</t>
         </is>
       </c>
-      <c r="F142" s="5" t="n"/>
-      <c r="G142" s="6" t="n"/>
+      <c r="F142" s="7" t="n"/>
+      <c r="G142" s="8" t="n"/>
       <c r="H142" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -4077,10 +4083,10 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="n">
+      <c r="A143" s="5" t="n">
         <v>145</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B143" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C143" t="inlineStr">
@@ -4088,8 +4094,8 @@
           <t>ICE CART</t>
         </is>
       </c>
-      <c r="F143" s="5" t="n"/>
-      <c r="G143" s="6" t="n"/>
+      <c r="F143" s="7" t="n"/>
+      <c r="G143" s="8" t="n"/>
       <c r="S143" t="inlineStr">
         <is>
           <t>MOBILE 250LBS.</t>
@@ -4097,10 +4103,10 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="n">
+      <c r="A144" s="5" t="n">
         <v>146</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B144" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C144" t="inlineStr">
@@ -4114,10 +4120,10 @@
       <c r="E144" t="n">
         <v>1</v>
       </c>
-      <c r="F144" s="5" t="n">
+      <c r="F144" s="7" t="n">
         <v>41.8</v>
       </c>
-      <c r="G144" s="6">
+      <c r="G144" s="8">
         <f>IF(E144&gt;1,(1.732*D144*F144)/1000,(D144*F144)/1000)</f>
         <v/>
       </c>
@@ -4138,10 +4144,10 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="n">
+      <c r="A145" s="5" t="n">
         <v>147</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B145" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C145" t="inlineStr">
@@ -4155,10 +4161,10 @@
       <c r="E145" t="n">
         <v>1</v>
       </c>
-      <c r="F145" s="5" t="n">
+      <c r="F145" s="7" t="n">
         <v>6.3</v>
       </c>
-      <c r="G145" s="6">
+      <c r="G145" s="8">
         <f>IF(E145&gt;1,(1.732*D145*F145)/1000,(D145*F145)/1000)</f>
         <v/>
       </c>
@@ -4169,10 +4175,10 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="n">
+      <c r="A146" s="5" t="n">
         <v>148</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B146" s="6" t="n">
         <v>2</v>
       </c>
       <c r="C146" t="inlineStr">
@@ -4186,10 +4192,10 @@
       <c r="E146" t="n">
         <v>1</v>
       </c>
-      <c r="F146" s="5" t="n">
+      <c r="F146" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="G146" s="6">
+      <c r="G146" s="8">
         <f>IF(E146&gt;1,(1.732*D146*F146)/1000,(D146*F146)/1000)</f>
         <v/>
       </c>
@@ -4200,10 +4206,10 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="n">
+      <c r="A147" s="5" t="n">
         <v>149</v>
       </c>
-      <c r="B147" t="inlineStr">
+      <c r="B147" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4213,14 +4219,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F147" s="5" t="n"/>
-      <c r="G147" s="6" t="n"/>
+      <c r="F147" s="7" t="n"/>
+      <c r="G147" s="8" t="n"/>
     </row>
     <row r="148">
-      <c r="A148" t="n">
+      <c r="A148" s="5" t="n">
         <v>150</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B148" s="6" t="n">
         <v>2</v>
       </c>
       <c r="C148" t="inlineStr">
@@ -4234,10 +4240,10 @@
       <c r="E148" t="n">
         <v>1</v>
       </c>
-      <c r="F148" s="5" t="n">
+      <c r="F148" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="G148" s="6">
+      <c r="G148" s="8">
         <f>IF(E148&gt;1,(1.732*D148*F148)/1000,(D148*F148)/1000)</f>
         <v/>
       </c>
@@ -4248,10 +4254,10 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="n">
+      <c r="A149" s="5" t="n">
         <v>151</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B149" s="6" t="n">
         <v>2</v>
       </c>
       <c r="C149" t="inlineStr">
@@ -4259,14 +4265,14 @@
           <t>CUP DISPENSER</t>
         </is>
       </c>
-      <c r="F149" s="5" t="n"/>
-      <c r="G149" s="6" t="n"/>
+      <c r="F149" s="7" t="n"/>
+      <c r="G149" s="8" t="n"/>
     </row>
     <row r="150">
-      <c r="A150" t="n">
+      <c r="A150" s="5" t="n">
         <v>152</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B150" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C150" t="inlineStr">
@@ -4274,14 +4280,14 @@
           <t>PASTRY DISPLAY CASE</t>
         </is>
       </c>
-      <c r="F150" s="5" t="n"/>
-      <c r="G150" s="6" t="n"/>
+      <c r="F150" s="7" t="n"/>
+      <c r="G150" s="8" t="n"/>
     </row>
     <row r="151">
-      <c r="A151" t="n">
+      <c r="A151" s="5" t="n">
         <v>153</v>
       </c>
-      <c r="B151" t="n">
+      <c r="B151" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C151" t="inlineStr">
@@ -4295,10 +4301,10 @@
       <c r="E151" t="n">
         <v>1</v>
       </c>
-      <c r="F151" s="5" t="n">
+      <c r="F151" s="7" t="n">
         <v>6.3</v>
       </c>
-      <c r="G151" s="6">
+      <c r="G151" s="8">
         <f>IF(E151&gt;1,(1.732*D151*F151)/1000,(D151*F151)/1000)</f>
         <v/>
       </c>
@@ -4309,10 +4315,10 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="n">
+      <c r="A152" s="5" t="n">
         <v>154</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B152" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C152" t="inlineStr">
@@ -4320,8 +4326,8 @@
           <t>SERVING COUNTER</t>
         </is>
       </c>
-      <c r="F152" s="5" t="n"/>
-      <c r="G152" s="6" t="n"/>
+      <c r="F152" s="7" t="n"/>
+      <c r="G152" s="8" t="n"/>
       <c r="S152" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
@@ -4329,10 +4335,10 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="n">
+      <c r="A153" s="5" t="n">
         <v>155</v>
       </c>
-      <c r="B153" t="inlineStr">
+      <c r="B153" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4342,14 +4348,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F153" s="5" t="n"/>
-      <c r="G153" s="6" t="n"/>
+      <c r="F153" s="7" t="n"/>
+      <c r="G153" s="8" t="n"/>
     </row>
     <row r="154">
-      <c r="A154" t="n">
+      <c r="A154" s="5" t="n">
         <v>156</v>
       </c>
-      <c r="B154" t="n">
+      <c r="B154" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C154" t="inlineStr">
@@ -4357,8 +4363,8 @@
           <t>PICK-UP COUNTER</t>
         </is>
       </c>
-      <c r="F154" s="5" t="n"/>
-      <c r="G154" s="6" t="n"/>
+      <c r="F154" s="7" t="n"/>
+      <c r="G154" s="8" t="n"/>
       <c r="S154" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
@@ -4366,10 +4372,10 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="n">
+      <c r="A155" s="5" t="n">
         <v>157</v>
       </c>
-      <c r="B155" t="n">
+      <c r="B155" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C155" t="inlineStr">
@@ -4377,8 +4383,8 @@
           <t>POS COUNTER</t>
         </is>
       </c>
-      <c r="F155" s="5" t="n"/>
-      <c r="G155" s="6" t="n"/>
+      <c r="F155" s="7" t="n"/>
+      <c r="G155" s="8" t="n"/>
       <c r="S155" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
@@ -4386,10 +4392,10 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="n">
+      <c r="A156" s="5" t="n">
         <v>158</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B156" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C156" t="inlineStr">
@@ -4403,10 +4409,10 @@
       <c r="E156" t="n">
         <v>1</v>
       </c>
-      <c r="F156" s="5" t="n">
+      <c r="F156" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="G156" s="6">
+      <c r="G156" s="8">
         <f>IF(E156&gt;1,(1.732*D156*F156)/1000,(D156*F156)/1000)</f>
         <v/>
       </c>
@@ -4417,10 +4423,10 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="n">
+      <c r="A157" s="5" t="n">
         <v>159</v>
       </c>
-      <c r="B157" t="inlineStr">
+      <c r="B157" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4430,14 +4436,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F157" s="5" t="n"/>
-      <c r="G157" s="6" t="n"/>
+      <c r="F157" s="7" t="n"/>
+      <c r="G157" s="8" t="n"/>
     </row>
     <row r="158">
-      <c r="A158" t="n">
+      <c r="A158" s="5" t="n">
         <v>160</v>
       </c>
-      <c r="B158" t="inlineStr">
+      <c r="B158" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4447,14 +4453,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F158" s="5" t="n"/>
-      <c r="G158" s="6" t="n"/>
+      <c r="F158" s="7" t="n"/>
+      <c r="G158" s="8" t="n"/>
     </row>
     <row r="159">
-      <c r="A159" t="n">
+      <c r="A159" s="5" t="n">
         <v>161</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B159" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C159" t="inlineStr">
@@ -4462,8 +4468,8 @@
           <t>CHAIR</t>
         </is>
       </c>
-      <c r="F159" s="5" t="n"/>
-      <c r="G159" s="6" t="n"/>
+      <c r="F159" s="7" t="n"/>
+      <c r="G159" s="8" t="n"/>
       <c r="S159" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
@@ -4471,12 +4477,12 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="inlineStr">
+      <c r="A160" s="5" t="inlineStr">
         <is>
           <t>162-170</t>
         </is>
       </c>
-      <c r="B160" t="inlineStr">
+      <c r="B160" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4486,14 +4492,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F160" s="5" t="n"/>
-      <c r="G160" s="6" t="n"/>
+      <c r="F160" s="7" t="n"/>
+      <c r="G160" s="8" t="n"/>
     </row>
     <row r="161">
-      <c r="A161" t="n">
+      <c r="A161" s="5" t="n">
         <v>171</v>
       </c>
-      <c r="B161" t="n">
+      <c r="B161" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C161" t="inlineStr">
@@ -4507,10 +4513,10 @@
       <c r="E161" t="n">
         <v>1</v>
       </c>
-      <c r="F161" s="5" t="n">
+      <c r="F161" s="7" t="n">
         <v>40</v>
       </c>
-      <c r="G161" s="6">
+      <c r="G161" s="8">
         <f>IF(E161&gt;1,(1.732*D161*F161)/1000,(D161*F161)/1000)</f>
         <v/>
       </c>
@@ -4521,10 +4527,10 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="n">
+      <c r="A162" s="5" t="n">
         <v>172</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B162" s="6" t="n">
         <v>2</v>
       </c>
       <c r="C162" t="inlineStr">
@@ -4532,8 +4538,8 @@
           <t>CONDIMENT DISPENSER</t>
         </is>
       </c>
-      <c r="F162" s="5" t="n"/>
-      <c r="G162" s="6" t="n"/>
+      <c r="F162" s="7" t="n"/>
+      <c r="G162" s="8" t="n"/>
       <c r="S162" t="inlineStr">
         <is>
           <t>BY VENDOR</t>
@@ -4541,10 +4547,10 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="n">
+      <c r="A163" s="5" t="n">
         <v>173</v>
       </c>
-      <c r="B163" t="n">
+      <c r="B163" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C163" t="inlineStr">
@@ -4552,8 +4558,8 @@
           <t>UTENSIL DISPENSER</t>
         </is>
       </c>
-      <c r="F163" s="5" t="n"/>
-      <c r="G163" s="6" t="n"/>
+      <c r="F163" s="7" t="n"/>
+      <c r="G163" s="8" t="n"/>
       <c r="S163" t="inlineStr">
         <is>
           <t>BY VENDOR</t>
@@ -4561,10 +4567,10 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="n">
+      <c r="A164" s="5" t="n">
         <v>174</v>
       </c>
-      <c r="B164" t="n">
+      <c r="B164" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C164" t="inlineStr">
@@ -4572,8 +4578,8 @@
           <t>NAPKIN DISPENSER</t>
         </is>
       </c>
-      <c r="F164" s="5" t="n"/>
-      <c r="G164" s="6" t="n"/>
+      <c r="F164" s="7" t="n"/>
+      <c r="G164" s="8" t="n"/>
       <c r="S164" t="inlineStr">
         <is>
           <t>BY VENDOR</t>
@@ -4581,10 +4587,10 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="n">
+      <c r="A165" s="5" t="n">
         <v>175</v>
       </c>
-      <c r="B165" t="inlineStr">
+      <c r="B165" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4594,14 +4600,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F165" s="5" t="n"/>
-      <c r="G165" s="6" t="n"/>
+      <c r="F165" s="7" t="n"/>
+      <c r="G165" s="8" t="n"/>
     </row>
     <row r="166">
-      <c r="A166" t="n">
+      <c r="A166" s="5" t="n">
         <v>176</v>
       </c>
-      <c r="B166" t="n">
+      <c r="B166" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C166" t="inlineStr">
@@ -4609,8 +4615,8 @@
           <t>TRASH CHUTE</t>
         </is>
       </c>
-      <c r="F166" s="5" t="n"/>
-      <c r="G166" s="6" t="n"/>
+      <c r="F166" s="7" t="n"/>
+      <c r="G166" s="8" t="n"/>
       <c r="S166" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #171</t>
@@ -4618,10 +4624,10 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="n">
+      <c r="A167" s="5" t="n">
         <v>177</v>
       </c>
-      <c r="B167" t="n">
+      <c r="B167" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C167" t="inlineStr">
@@ -4629,8 +4635,8 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F167" s="5" t="n"/>
-      <c r="G167" s="6" t="n"/>
+      <c r="F167" s="7" t="n"/>
+      <c r="G167" s="8" t="n"/>
       <c r="S167" t="inlineStr">
         <is>
           <t>WITH LID AND DOLLY</t>
@@ -4638,10 +4644,10 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="n">
+      <c r="A168" s="5" t="n">
         <v>178</v>
       </c>
-      <c r="B168" t="inlineStr">
+      <c r="B168" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4651,14 +4657,14 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F168" s="5" t="n"/>
-      <c r="G168" s="6" t="n"/>
+      <c r="F168" s="7" t="n"/>
+      <c r="G168" s="8" t="n"/>
     </row>
     <row r="169">
-      <c r="A169" t="n">
+      <c r="A169" s="5" t="n">
         <v>179</v>
       </c>
-      <c r="B169" t="inlineStr">
+      <c r="B169" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4668,16 +4674,16 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F169" s="5" t="n"/>
-      <c r="G169" s="6" t="n"/>
+      <c r="F169" s="7" t="n"/>
+      <c r="G169" s="8" t="n"/>
     </row>
     <row r="170">
-      <c r="A170" t="inlineStr">
+      <c r="A170" s="5" t="inlineStr">
         <is>
           <t>180-200</t>
         </is>
       </c>
-      <c r="B170" t="inlineStr">
+      <c r="B170" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4687,39 +4693,39 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F170" s="5" t="n"/>
-      <c r="G170" s="6" t="n"/>
+      <c r="F170" s="7" t="n"/>
+      <c r="G170" s="8" t="n"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr"/>
     </row>
     <row r="172">
-      <c r="A172" s="7" t="inlineStr">
+      <c r="A172" s="9" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="G172" s="8">
+      <c r="G172" s="10">
         <f>SUM(G7:G171)</f>
         <v/>
       </c>
-      <c r="J172" s="8">
+      <c r="J172" s="10">
         <f>SUM(J7:J171)</f>
         <v/>
       </c>
-      <c r="M172" s="8">
+      <c r="M172" s="10">
         <f>SUM(M7:M171)</f>
         <v/>
       </c>
-      <c r="N172" s="8">
+      <c r="N172" s="10">
         <f>SUM(N7:N171)</f>
         <v/>
       </c>
-      <c r="O172" s="8">
+      <c r="O172" s="10">
         <f>SUM(O7:O171)</f>
         <v/>
       </c>
-      <c r="P172" s="8">
+      <c r="P172" s="10">
         <f>SUM(P7:P171)</f>
         <v/>
       </c>

--- a/Bulk Loads/1424/_PRELIMINARY UTILITY EXPORT - FS_formatted.xlsx
+++ b/Bulk Loads/1424/_PRELIMINARY UTILITY EXPORT - FS_formatted.xlsx
@@ -69,7 +69,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -83,6 +83,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
@@ -478,7 +481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A3:S172"/>
   <sheetViews>
@@ -499,6 +502,7 @@
     <col width="10" customWidth="1" min="6" max="6"/>
     <col width="10" customWidth="1" min="7" max="7"/>
     <col width="10" customWidth="1" min="8" max="8"/>
+    <col width="30" customWidth="1" min="19" max="19"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1"/>
@@ -513,7 +517,7 @@
     <row r="4" ht="27" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>August 29, 2024</t>
+          <t>September 18, 2024</t>
         </is>
       </c>
     </row>
@@ -668,7 +672,7 @@
         <f>IF(E9&gt;1,(1.732*D9*F9)/1000,(D9*F9)/1000)</f>
         <v/>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="S9" s="9" t="inlineStr">
         <is>
           <t>WALL MOUNTED WITH UV HEPAC AND IONIZER</t>
         </is>
@@ -699,7 +703,7 @@
         <f>IF(E10&gt;1,(1.732*D10*F10)/1000,(D10*F10)/1000)</f>
         <v/>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="S10" s="9" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
         </is>
@@ -719,7 +723,7 @@
       </c>
       <c r="F11" s="7" t="n"/>
       <c r="G11" s="8" t="n"/>
-      <c r="S11" t="inlineStr">
+      <c r="S11" s="9" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
         </is>
@@ -750,7 +754,7 @@
         <f>IF(E12&gt;1,(1.732*D12*F12)/1000,(D12*F12)/1000)</f>
         <v/>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="S12" s="9" t="inlineStr">
         <is>
           <t>BY OWNER</t>
         </is>
@@ -781,7 +785,7 @@
         <f>IF(E13&gt;1,(1.732*D13*F13)/1000,(D13*F13)/1000)</f>
         <v/>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="S13" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -801,7 +805,7 @@
       </c>
       <c r="F14" s="7" t="n"/>
       <c r="G14" s="8" t="n"/>
-      <c r="S14" t="inlineStr">
+      <c r="S14" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -832,7 +836,7 @@
         <f>IF(E15&gt;1,(1.732*D15*F15)/1000,(D15*F15)/1000)</f>
         <v/>
       </c>
-      <c r="S15" t="inlineStr">
+      <c r="S15" s="9" t="inlineStr">
         <is>
           <t>WALL MOUNT</t>
         </is>
@@ -852,7 +856,7 @@
       </c>
       <c r="F16" s="7" t="n"/>
       <c r="G16" s="8" t="n"/>
-      <c r="S16" t="inlineStr">
+      <c r="S16" s="9" t="inlineStr">
         <is>
           <t>FIXED FIVE TIER</t>
         </is>
@@ -872,6 +876,7 @@
       </c>
       <c r="F17" s="7" t="n"/>
       <c r="G17" s="8" t="n"/>
+      <c r="S17" s="9" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="5" t="n">
@@ -889,6 +894,7 @@
       </c>
       <c r="F18" s="7" t="n"/>
       <c r="G18" s="8" t="n"/>
+      <c r="S18" s="9" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="5" t="n">
@@ -904,7 +910,7 @@
       </c>
       <c r="F19" s="7" t="n"/>
       <c r="G19" s="8" t="n"/>
-      <c r="S19" t="inlineStr">
+      <c r="S19" s="9" t="inlineStr">
         <is>
           <t>BY VENDOR</t>
         </is>
@@ -940,7 +946,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S20" t="inlineStr">
+      <c r="S20" s="9" t="inlineStr">
         <is>
           <t>BY VENDOR</t>
         </is>
@@ -965,7 +971,7 @@
           <t>2"</t>
         </is>
       </c>
-      <c r="S21" t="inlineStr">
+      <c r="S21" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -996,6 +1002,7 @@
         <f>IF(E22&gt;1,(1.732*D22*F22)/1000,(D22*F22)/1000)</f>
         <v/>
       </c>
+      <c r="S22" s="9" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="5" t="n">
@@ -1013,6 +1020,7 @@
       </c>
       <c r="F23" s="7" t="n"/>
       <c r="G23" s="8" t="n"/>
+      <c r="S23" s="9" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="5" t="n">
@@ -1049,7 +1057,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S24" t="inlineStr">
+      <c r="S24" s="9" t="inlineStr">
         <is>
           <t>INDOOR WATER-COOLED ON EMERGENCY POWER</t>
         </is>
@@ -1090,7 +1098,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S25" t="inlineStr">
+      <c r="S25" s="9" t="inlineStr">
         <is>
           <t>INDOOR WATER-COOLED ON EMERGENCY POWER</t>
         </is>
@@ -1126,7 +1134,7 @@
           <t>3/4"</t>
         </is>
       </c>
-      <c r="S26" t="inlineStr">
+      <c r="S26" s="9" t="inlineStr">
         <is>
           <t>ON EMERGENCY POWER</t>
         </is>
@@ -1148,6 +1156,7 @@
       </c>
       <c r="F27" s="7" t="n"/>
       <c r="G27" s="8" t="n"/>
+      <c r="S27" s="9" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="5" t="n">
@@ -1165,6 +1174,7 @@
       </c>
       <c r="F28" s="7" t="n"/>
       <c r="G28" s="8" t="n"/>
+      <c r="S28" s="9" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="5" t="n">
@@ -1180,7 +1190,7 @@
       </c>
       <c r="F29" s="7" t="n"/>
       <c r="G29" s="8" t="n"/>
-      <c r="S29" t="inlineStr">
+      <c r="S29" s="9" t="inlineStr">
         <is>
           <t>MOBILE FIVE TIER</t>
         </is>
@@ -1211,6 +1221,7 @@
         <f>IF(E30&gt;1,(1.732*D30*F30)/1000,(D30*F30)/1000)</f>
         <v/>
       </c>
+      <c r="S30" s="9" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="5" t="n">
@@ -1242,7 +1253,7 @@
           <t>3/4"</t>
         </is>
       </c>
-      <c r="S31" t="inlineStr">
+      <c r="S31" s="9" t="inlineStr">
         <is>
           <t>ON EMERGENCY POWER</t>
         </is>
@@ -1262,7 +1273,7 @@
       </c>
       <c r="F32" s="7" t="n"/>
       <c r="G32" s="8" t="n"/>
-      <c r="S32" t="inlineStr">
+      <c r="S32" s="9" t="inlineStr">
         <is>
           <t>MOBILE FIVE TIER</t>
         </is>
@@ -1284,6 +1295,7 @@
       </c>
       <c r="F33" s="7" t="n"/>
       <c r="G33" s="8" t="n"/>
+      <c r="S33" s="9" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
@@ -1342,7 +1354,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S35" t="inlineStr">
+      <c r="S35" s="9" t="inlineStr">
         <is>
           <t>WITH VENDOR PROVIDED SOAP &amp; TOWEL DISPENSER</t>
         </is>
@@ -1362,7 +1374,7 @@
       </c>
       <c r="F36" s="7" t="n"/>
       <c r="G36" s="8" t="n"/>
-      <c r="S36" t="inlineStr">
+      <c r="S36" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -1393,7 +1405,7 @@
         <f>IF(E37&gt;1,(1.732*D37*F37)/1000,(D37*F37)/1000)</f>
         <v/>
       </c>
-      <c r="S37" t="inlineStr">
+      <c r="S37" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -1415,6 +1427,7 @@
       </c>
       <c r="F38" s="7" t="n"/>
       <c r="G38" s="8" t="n"/>
+      <c r="S38" s="9" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="5" t="n">
@@ -1441,7 +1454,7 @@
         <f>IF(E39&gt;1,(1.732*D39*F39)/1000,(D39*F39)/1000)</f>
         <v/>
       </c>
-      <c r="S39" t="inlineStr">
+      <c r="S39" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -1461,7 +1474,7 @@
       </c>
       <c r="F40" s="7" t="n"/>
       <c r="G40" s="8" t="n"/>
-      <c r="S40" t="inlineStr">
+      <c r="S40" s="9" t="inlineStr">
         <is>
           <t>WITH LID AND DOLLY</t>
         </is>
@@ -1481,7 +1494,7 @@
       </c>
       <c r="F41" s="7" t="n"/>
       <c r="G41" s="8" t="n"/>
-      <c r="S41" t="inlineStr">
+      <c r="S41" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -1506,7 +1519,7 @@
           <t>2"</t>
         </is>
       </c>
-      <c r="S42" t="inlineStr">
+      <c r="S42" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -1560,7 +1573,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S43" t="inlineStr">
+      <c r="S43" s="9" t="inlineStr">
         <is>
           <t>500LBS. WATER-COOLED CUBE STYLE</t>
         </is>
@@ -1582,6 +1595,7 @@
       </c>
       <c r="F44" s="7" t="n"/>
       <c r="G44" s="8" t="n"/>
+      <c r="S44" s="9" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="5" t="n">
@@ -1602,7 +1616,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S45" t="inlineStr">
+      <c r="S45" s="9" t="inlineStr">
         <is>
           <t>650LBS.</t>
         </is>
@@ -1622,7 +1636,7 @@
       </c>
       <c r="F46" s="7" t="n"/>
       <c r="G46" s="8" t="n"/>
-      <c r="S46" t="inlineStr">
+      <c r="S46" s="9" t="inlineStr">
         <is>
           <t>MOBILE 250LBS.</t>
         </is>
@@ -1647,7 +1661,7 @@
           <t>3/8"</t>
         </is>
       </c>
-      <c r="S47" t="inlineStr">
+      <c r="S47" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #34</t>
         </is>
@@ -1669,6 +1683,7 @@
       </c>
       <c r="F48" s="7" t="n"/>
       <c r="G48" s="8" t="n"/>
+      <c r="S48" s="9" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="5" t="n">
@@ -1686,6 +1701,7 @@
       </c>
       <c r="F49" s="7" t="n"/>
       <c r="G49" s="8" t="n"/>
+      <c r="S49" s="9" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="5" t="n">
@@ -1712,7 +1728,7 @@
         <f>IF(E50&gt;1,(1.732*D50*F50)/1000,(D50*F50)/1000)</f>
         <v/>
       </c>
-      <c r="S50" t="inlineStr">
+      <c r="S50" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -1743,7 +1759,7 @@
         <f>IF(E51&gt;1,(1.732*D51*F51)/1000,(D51*F51)/1000)</f>
         <v/>
       </c>
-      <c r="S51" t="inlineStr">
+      <c r="S51" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -1763,7 +1779,7 @@
       </c>
       <c r="F52" s="7" t="n"/>
       <c r="G52" s="8" t="n"/>
-      <c r="S52" t="inlineStr">
+      <c r="S52" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -1801,7 +1817,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S53" t="inlineStr">
+      <c r="S53" s="9" t="inlineStr">
         <is>
           <t>WITH VENDOR PROVIDED SOAP &amp; TOWEL DISPENSER</t>
         </is>
@@ -1823,6 +1839,7 @@
       </c>
       <c r="F54" s="7" t="n"/>
       <c r="G54" s="8" t="n"/>
+      <c r="S54" s="9" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
@@ -1863,7 +1880,7 @@
       </c>
       <c r="F56" s="7" t="n"/>
       <c r="G56" s="8" t="n"/>
-      <c r="S56" t="inlineStr">
+      <c r="S56" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -1894,7 +1911,7 @@
         <f>IF(E57&gt;1,(1.732*D57*F57)/1000,(D57*F57)/1000)</f>
         <v/>
       </c>
-      <c r="S57" t="inlineStr">
+      <c r="S57" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -1931,7 +1948,7 @@
       <c r="O58" t="n">
         <v>3206</v>
       </c>
-      <c r="S58" t="inlineStr">
+      <c r="S58" s="9" t="inlineStr">
         <is>
           <t>WITH MAKE-UP AIR</t>
         </is>
@@ -1953,6 +1970,7 @@
       </c>
       <c r="F59" s="7" t="n"/>
       <c r="G59" s="8" t="n"/>
+      <c r="S59" s="9" t="n"/>
     </row>
     <row r="60">
       <c r="A60" s="5" t="n">
@@ -1970,6 +1988,7 @@
       </c>
       <c r="F60" s="7" t="n"/>
       <c r="G60" s="8" t="n"/>
+      <c r="S60" s="9" t="n"/>
     </row>
     <row r="61">
       <c r="A61" s="5" t="n">
@@ -1996,7 +2015,7 @@
         <f>IF(E61&gt;1,(1.732*D61*F61)/1000,(D61*F61)/1000)</f>
         <v/>
       </c>
-      <c r="S61" t="inlineStr">
+      <c r="S61" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -2027,7 +2046,7 @@
         <f>IF(E62&gt;1,(1.732*D62*F62)/1000,(D62*F62)/1000)</f>
         <v/>
       </c>
-      <c r="S62" t="inlineStr">
+      <c r="S62" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -2058,7 +2077,7 @@
         <f>IF(E63&gt;1,(1.732*D63*F63)/1000,(D63*F63)/1000)</f>
         <v/>
       </c>
-      <c r="S63" t="inlineStr">
+      <c r="S63" s="9" t="inlineStr">
         <is>
           <t>MOBILE WITH OVEN</t>
         </is>
@@ -2089,7 +2108,7 @@
         <f>IF(E64&gt;1,(1.732*D64*F64)/1000,(D64*F64)/1000)</f>
         <v/>
       </c>
-      <c r="S64" t="inlineStr">
+      <c r="S64" s="9" t="inlineStr">
         <is>
           <t>WITH STAND</t>
         </is>
@@ -2120,7 +2139,7 @@
         <f>IF(E65&gt;1,(1.732*D65*F65)/1000,(D65*F65)/1000)</f>
         <v/>
       </c>
-      <c r="S65" t="inlineStr">
+      <c r="S65" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #48</t>
         </is>
@@ -2151,7 +2170,7 @@
         <f>IF(E66&gt;1,(1.732*D66*F66)/1000,(D66*F66)/1000)</f>
         <v/>
       </c>
-      <c r="S66" t="inlineStr">
+      <c r="S66" s="9" t="inlineStr">
         <is>
           <t>UNDERCOUNTER</t>
         </is>
@@ -2182,7 +2201,7 @@
         <f>IF(E67&gt;1,(1.732*D67*F67)/1000,(D67*F67)/1000)</f>
         <v/>
       </c>
-      <c r="S67" t="inlineStr">
+      <c r="S67" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -2202,7 +2221,7 @@
       </c>
       <c r="F68" s="7" t="n"/>
       <c r="G68" s="8" t="n"/>
-      <c r="S68" t="inlineStr">
+      <c r="S68" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -2240,7 +2259,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S69" t="inlineStr">
+      <c r="S69" s="9" t="inlineStr">
         <is>
           <t>WITH VENDOR PROVIDED SOAP &amp; TOWEL DISPENSER</t>
         </is>
@@ -2271,7 +2290,7 @@
         <f>IF(E70&gt;1,(1.732*D70*F70)/1000,(D70*F70)/1000)</f>
         <v/>
       </c>
-      <c r="S70" t="inlineStr">
+      <c r="S70" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -2293,6 +2312,7 @@
       </c>
       <c r="F71" s="7" t="n"/>
       <c r="G71" s="8" t="n"/>
+      <c r="S71" s="9" t="n"/>
     </row>
     <row r="72">
       <c r="A72" s="3" t="inlineStr">
@@ -2333,7 +2353,7 @@
       </c>
       <c r="F73" s="7" t="n"/>
       <c r="G73" s="8" t="n"/>
-      <c r="S73" t="inlineStr">
+      <c r="S73" s="9" t="inlineStr">
         <is>
           <t>FIXED FIVE TIER</t>
         </is>
@@ -2353,7 +2373,7 @@
       </c>
       <c r="F74" s="7" t="n"/>
       <c r="G74" s="8" t="n"/>
-      <c r="S74" t="inlineStr">
+      <c r="S74" s="9" t="inlineStr">
         <is>
           <t>MOBILE FOUR TIER</t>
         </is>
@@ -2391,7 +2411,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S75" t="inlineStr">
+      <c r="S75" s="9" t="inlineStr">
         <is>
           <t>WITH VENDOR PROVIDED SOAP &amp; TOWEL DISPENSER</t>
         </is>
@@ -2411,7 +2431,7 @@
       </c>
       <c r="F76" s="7" t="n"/>
       <c r="G76" s="8" t="n"/>
-      <c r="S76" t="inlineStr">
+      <c r="S76" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -2433,6 +2453,7 @@
       </c>
       <c r="F77" s="7" t="n"/>
       <c r="G77" s="8" t="n"/>
+      <c r="S77" s="9" t="n"/>
     </row>
     <row r="78">
       <c r="A78" s="5" t="n">
@@ -2466,7 +2487,7 @@
           <t>(3)2"</t>
         </is>
       </c>
-      <c r="S78" t="inlineStr">
+      <c r="S78" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -2486,7 +2507,7 @@
       </c>
       <c r="F79" s="7" t="n"/>
       <c r="G79" s="8" t="n"/>
-      <c r="S79" t="inlineStr">
+      <c r="S79" s="9" t="inlineStr">
         <is>
           <t>WITH LID AND DOLLY</t>
         </is>
@@ -2506,7 +2527,7 @@
       </c>
       <c r="F80" s="7" t="n"/>
       <c r="G80" s="8" t="n"/>
-      <c r="S80" t="inlineStr">
+      <c r="S80" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -2528,6 +2549,7 @@
       </c>
       <c r="F81" s="7" t="n"/>
       <c r="G81" s="8" t="n"/>
+      <c r="S81" s="9" t="n"/>
     </row>
     <row r="82">
       <c r="A82" s="5" t="n">
@@ -2545,6 +2567,7 @@
       </c>
       <c r="F82" s="7" t="n"/>
       <c r="G82" s="8" t="n"/>
+      <c r="S82" s="9" t="n"/>
     </row>
     <row r="83">
       <c r="A83" s="5" t="n">
@@ -2584,7 +2607,7 @@
           <t>3/4"</t>
         </is>
       </c>
-      <c r="S83" t="inlineStr">
+      <c r="S83" s="9" t="inlineStr">
         <is>
           <t>180° RINSE</t>
         </is>
@@ -2609,7 +2632,7 @@
           <t>2"</t>
         </is>
       </c>
-      <c r="S84" t="inlineStr">
+      <c r="S84" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -2629,7 +2652,7 @@
       </c>
       <c r="F85" s="7" t="n"/>
       <c r="G85" s="8" t="n"/>
-      <c r="S85" t="inlineStr">
+      <c r="S85" s="9" t="inlineStr">
         <is>
           <t>FIXED FIVE TIER</t>
         </is>
@@ -2651,6 +2674,7 @@
       </c>
       <c r="F86" s="7" t="n"/>
       <c r="G86" s="8" t="n"/>
+      <c r="S86" s="9" t="n"/>
     </row>
     <row r="87">
       <c r="A87" s="5" t="n">
@@ -2668,6 +2692,7 @@
       </c>
       <c r="F87" s="7" t="n"/>
       <c r="G87" s="8" t="n"/>
+      <c r="S87" s="9" t="n"/>
     </row>
     <row r="88">
       <c r="A88" s="5" t="n">
@@ -2688,7 +2713,7 @@
           <t>2"</t>
         </is>
       </c>
-      <c r="S88" t="inlineStr">
+      <c r="S88" s="9" t="inlineStr">
         <is>
           <t>BY GENERAL CONTRACTOR</t>
         </is>
@@ -2718,7 +2743,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S89" t="inlineStr">
+      <c r="S89" s="9" t="inlineStr">
         <is>
           <t>BY GENERAL CONTRACTOR</t>
         </is>
@@ -2738,7 +2763,7 @@
       </c>
       <c r="F90" s="7" t="n"/>
       <c r="G90" s="8" t="n"/>
-      <c r="S90" t="inlineStr">
+      <c r="S90" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -2760,6 +2785,7 @@
       </c>
       <c r="F91" s="7" t="n"/>
       <c r="G91" s="8" t="n"/>
+      <c r="S91" s="9" t="n"/>
     </row>
     <row r="92">
       <c r="A92" s="5" t="n">
@@ -2777,6 +2803,7 @@
       </c>
       <c r="F92" s="7" t="n"/>
       <c r="G92" s="8" t="n"/>
+      <c r="S92" s="9" t="n"/>
     </row>
     <row r="93">
       <c r="A93" s="5" t="n">
@@ -2792,7 +2819,7 @@
       </c>
       <c r="F93" s="7" t="n"/>
       <c r="G93" s="8" t="n"/>
-      <c r="S93" t="inlineStr">
+      <c r="S93" s="9" t="inlineStr">
         <is>
           <t>FIXED FIVE TIER</t>
         </is>
@@ -2812,7 +2839,7 @@
       </c>
       <c r="F94" s="7" t="n"/>
       <c r="G94" s="8" t="n"/>
-      <c r="S94" t="inlineStr">
+      <c r="S94" s="9" t="inlineStr">
         <is>
           <t>BY GENERAL CONTRACTOR</t>
         </is>
@@ -2843,7 +2870,7 @@
         <f>IF(E95&gt;1,(1.732*D95*F95)/1000,(D95*F95)/1000)</f>
         <v/>
       </c>
-      <c r="S95" t="inlineStr">
+      <c r="S95" s="9" t="inlineStr">
         <is>
           <t>WALL MOUNTED WITH UV HEPAC AND IONIZER</t>
         </is>
@@ -2874,7 +2901,7 @@
         <f>IF(E96&gt;1,(1.732*D96*F96)/1000,(D96*F96)/1000)</f>
         <v/>
       </c>
-      <c r="S96" t="inlineStr">
+      <c r="S96" s="9" t="inlineStr">
         <is>
           <t>WALL MOUNT</t>
         </is>
@@ -2898,6 +2925,7 @@
       </c>
       <c r="F97" s="7" t="n"/>
       <c r="G97" s="8" t="n"/>
+      <c r="S97" s="9" t="n"/>
     </row>
     <row r="98">
       <c r="A98" s="3" t="inlineStr">
@@ -2938,6 +2966,7 @@
       </c>
       <c r="F99" s="7" t="n"/>
       <c r="G99" s="8" t="n"/>
+      <c r="S99" s="9" t="n"/>
     </row>
     <row r="100">
       <c r="A100" s="5" t="n">
@@ -2964,7 +2993,7 @@
         <f>IF(E100&gt;1,(1.732*D100*F100)/1000,(D100*F100)/1000)</f>
         <v/>
       </c>
-      <c r="S100" t="inlineStr">
+      <c r="S100" s="9" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
         </is>
@@ -3000,7 +3029,7 @@
           <t>1/4"</t>
         </is>
       </c>
-      <c r="S101" t="inlineStr">
+      <c r="S101" s="9" t="inlineStr">
         <is>
           <t>BY VENDOR</t>
         </is>
@@ -3036,7 +3065,7 @@
           <t>1/4"</t>
         </is>
       </c>
-      <c r="S102" t="inlineStr">
+      <c r="S102" s="9" t="inlineStr">
         <is>
           <t>BY VENDOR</t>
         </is>
@@ -3058,6 +3087,7 @@
       </c>
       <c r="F103" s="7" t="n"/>
       <c r="G103" s="8" t="n"/>
+      <c r="S103" s="9" t="n"/>
     </row>
     <row r="104">
       <c r="A104" s="5" t="n">
@@ -3073,6 +3103,7 @@
       </c>
       <c r="F104" s="7" t="n"/>
       <c r="G104" s="8" t="n"/>
+      <c r="S104" s="9" t="n"/>
     </row>
     <row r="105">
       <c r="A105" s="5" t="n">
@@ -3088,6 +3119,7 @@
       </c>
       <c r="F105" s="7" t="n"/>
       <c r="G105" s="8" t="n"/>
+      <c r="S105" s="9" t="n"/>
     </row>
     <row r="106">
       <c r="A106" s="5" t="n">
@@ -3119,7 +3151,7 @@
           <t>3/4"</t>
         </is>
       </c>
-      <c r="S106" t="inlineStr">
+      <c r="S106" s="9" t="inlineStr">
         <is>
           <t>BY VENDOR</t>
         </is>
@@ -3141,6 +3173,7 @@
       </c>
       <c r="F107" s="7" t="n"/>
       <c r="G107" s="8" t="n"/>
+      <c r="S107" s="9" t="n"/>
     </row>
     <row r="108">
       <c r="A108" s="5" t="n">
@@ -3158,6 +3191,7 @@
       </c>
       <c r="F108" s="7" t="n"/>
       <c r="G108" s="8" t="n"/>
+      <c r="S108" s="9" t="n"/>
     </row>
     <row r="109">
       <c r="A109" s="5" t="n">
@@ -3207,7 +3241,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S109" t="inlineStr">
+      <c r="S109" s="9" t="inlineStr">
         <is>
           <t>420LBS. WATER-COOLED NUGGET ICE</t>
         </is>
@@ -3232,7 +3266,7 @@
           <t>3/8"</t>
         </is>
       </c>
-      <c r="S110" t="inlineStr">
+      <c r="S110" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #111 UNDERCOUNTER</t>
         </is>
@@ -3270,7 +3304,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S111" t="inlineStr">
+      <c r="S111" s="9" t="inlineStr">
         <is>
           <t>WITH SOAP &amp; TOWEL DISPENSER</t>
         </is>
@@ -3290,7 +3324,7 @@
       </c>
       <c r="F112" s="7" t="n"/>
       <c r="G112" s="8" t="n"/>
-      <c r="S112" t="inlineStr">
+      <c r="S112" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #102</t>
         </is>
@@ -3321,7 +3355,7 @@
         <f>IF(E113&gt;1,(1.732*D113*F113)/1000,(D113*F113)/1000)</f>
         <v/>
       </c>
-      <c r="S113" t="inlineStr">
+      <c r="S113" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -3341,7 +3375,7 @@
       </c>
       <c r="F114" s="7" t="n"/>
       <c r="G114" s="8" t="n"/>
-      <c r="S114" t="inlineStr">
+      <c r="S114" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -3372,7 +3406,7 @@
         <f>IF(E115&gt;1,(1.732*D115*F115)/1000,(D115*F115)/1000)</f>
         <v/>
       </c>
-      <c r="S115" t="inlineStr">
+      <c r="S115" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -3392,7 +3426,7 @@
       </c>
       <c r="F116" s="7" t="n"/>
       <c r="G116" s="8" t="n"/>
-      <c r="S116" t="inlineStr">
+      <c r="S116" s="9" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
         </is>
@@ -3414,6 +3448,7 @@
       </c>
       <c r="F117" s="7" t="n"/>
       <c r="G117" s="8" t="n"/>
+      <c r="S117" s="9" t="n"/>
     </row>
     <row r="118">
       <c r="A118" s="5" t="n">
@@ -3431,6 +3466,7 @@
       </c>
       <c r="F118" s="7" t="n"/>
       <c r="G118" s="8" t="n"/>
+      <c r="S118" s="9" t="n"/>
     </row>
     <row r="119">
       <c r="A119" s="5" t="n">
@@ -3457,6 +3493,7 @@
         <f>IF(E119&gt;1,(1.732*D119*F119)/1000,(D119*F119)/1000)</f>
         <v/>
       </c>
+      <c r="S119" s="9" t="n"/>
     </row>
     <row r="120">
       <c r="A120" s="5" t="n">
@@ -3472,6 +3509,7 @@
       </c>
       <c r="F120" s="7" t="n"/>
       <c r="G120" s="8" t="n"/>
+      <c r="S120" s="9" t="n"/>
     </row>
     <row r="121">
       <c r="A121" s="5" t="n">
@@ -3487,6 +3525,7 @@
       </c>
       <c r="F121" s="7" t="n"/>
       <c r="G121" s="8" t="n"/>
+      <c r="S121" s="9" t="n"/>
     </row>
     <row r="122">
       <c r="A122" s="5" t="n">
@@ -3513,7 +3552,7 @@
         <f>IF(E122&gt;1,(1.732*D122*F122)/1000,(D122*F122)/1000)</f>
         <v/>
       </c>
-      <c r="S122" t="inlineStr">
+      <c r="S122" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -3544,7 +3583,7 @@
         <f>IF(E123&gt;1,(1.732*D123*F123)/1000,(D123*F123)/1000)</f>
         <v/>
       </c>
-      <c r="S123" t="inlineStr">
+      <c r="S123" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -3575,7 +3614,7 @@
         <f>IF(E124&gt;1,(1.732*D124*F124)/1000,(D124*F124)/1000)</f>
         <v/>
       </c>
-      <c r="S124" t="inlineStr">
+      <c r="S124" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -3606,7 +3645,7 @@
         <f>IF(E125&gt;1,(1.732*D125*F125)/1000,(D125*F125)/1000)</f>
         <v/>
       </c>
-      <c r="S125" t="inlineStr">
+      <c r="S125" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -3637,7 +3676,7 @@
         <f>IF(E126&gt;1,(1.732*D126*F126)/1000,(D126*F126)/1000)</f>
         <v/>
       </c>
-      <c r="S126" t="inlineStr">
+      <c r="S126" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -3659,6 +3698,7 @@
       </c>
       <c r="F127" s="7" t="n"/>
       <c r="G127" s="8" t="n"/>
+      <c r="S127" s="9" t="n"/>
     </row>
     <row r="128">
       <c r="A128" s="5" t="n">
@@ -3674,7 +3714,7 @@
       </c>
       <c r="F128" s="7" t="n"/>
       <c r="G128" s="8" t="n"/>
-      <c r="S128" t="inlineStr">
+      <c r="S128" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -3705,7 +3745,7 @@
         <f>IF(E129&gt;1,(1.732*D129*F129)/1000,(D129*F129)/1000)</f>
         <v/>
       </c>
-      <c r="S129" t="inlineStr">
+      <c r="S129" s="9" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
         </is>
@@ -3725,7 +3765,7 @@
       </c>
       <c r="F130" s="7" t="n"/>
       <c r="G130" s="8" t="n"/>
-      <c r="S130" t="inlineStr">
+      <c r="S130" s="9" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
         </is>
@@ -3763,7 +3803,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S131" t="inlineStr">
+      <c r="S131" s="9" t="inlineStr">
         <is>
           <t>WITH VENDOR PROVIDED SOAP &amp; TOWEL DISPENSER</t>
         </is>
@@ -3783,7 +3823,7 @@
       </c>
       <c r="F132" s="7" t="n"/>
       <c r="G132" s="8" t="n"/>
-      <c r="S132" t="inlineStr">
+      <c r="S132" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -3805,6 +3845,7 @@
       </c>
       <c r="F133" s="7" t="n"/>
       <c r="G133" s="8" t="n"/>
+      <c r="S133" s="9" t="n"/>
     </row>
     <row r="134">
       <c r="A134" s="5" t="n">
@@ -3831,7 +3872,7 @@
         <f>IF(E134&gt;1,(1.732*D134*F134)/1000,(D134*F134)/1000)</f>
         <v/>
       </c>
-      <c r="S134" t="inlineStr">
+      <c r="S134" s="9" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
         </is>
@@ -3867,7 +3908,7 @@
           <t>1/4"</t>
         </is>
       </c>
-      <c r="S135" t="inlineStr">
+      <c r="S135" s="9" t="inlineStr">
         <is>
           <t>BY VENDOR</t>
         </is>
@@ -3903,7 +3944,7 @@
           <t>1/4"</t>
         </is>
       </c>
-      <c r="S136" t="inlineStr">
+      <c r="S136" s="9" t="inlineStr">
         <is>
           <t>BY VENDOR</t>
         </is>
@@ -3925,6 +3966,7 @@
       </c>
       <c r="F137" s="7" t="n"/>
       <c r="G137" s="8" t="n"/>
+      <c r="S137" s="9" t="n"/>
     </row>
     <row r="138">
       <c r="A138" s="5" t="n">
@@ -3951,7 +3993,7 @@
         <f>IF(E138&gt;1,(1.732*D138*F138)/1000,(D138*F138)/1000)</f>
         <v/>
       </c>
-      <c r="S138" t="inlineStr">
+      <c r="S138" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -3982,7 +4024,7 @@
         <f>IF(E139&gt;1,(1.732*D139*F139)/1000,(D139*F139)/1000)</f>
         <v/>
       </c>
-      <c r="S139" t="inlineStr">
+      <c r="S139" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -4013,7 +4055,7 @@
         <f>IF(E140&gt;1,(1.732*D140*F140)/1000,(D140*F140)/1000)</f>
         <v/>
       </c>
-      <c r="S140" t="inlineStr">
+      <c r="S140" s="9" t="inlineStr">
         <is>
           <t>WITH DOME</t>
         </is>
@@ -4038,7 +4080,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S141" t="inlineStr">
+      <c r="S141" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #136</t>
         </is>
@@ -4076,7 +4118,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S142" t="inlineStr">
+      <c r="S142" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #136</t>
         </is>
@@ -4096,7 +4138,7 @@
       </c>
       <c r="F143" s="7" t="n"/>
       <c r="G143" s="8" t="n"/>
-      <c r="S143" t="inlineStr">
+      <c r="S143" s="9" t="inlineStr">
         <is>
           <t>MOBILE 250LBS.</t>
         </is>
@@ -4137,7 +4179,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S144" t="inlineStr">
+      <c r="S144" s="9" t="inlineStr">
         <is>
           <t>2 GROUP</t>
         </is>
@@ -4168,7 +4210,7 @@
         <f>IF(E145&gt;1,(1.732*D145*F145)/1000,(D145*F145)/1000)</f>
         <v/>
       </c>
-      <c r="S145" t="inlineStr">
+      <c r="S145" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -4199,7 +4241,7 @@
         <f>IF(E146&gt;1,(1.732*D146*F146)/1000,(D146*F146)/1000)</f>
         <v/>
       </c>
-      <c r="S146" t="inlineStr">
+      <c r="S146" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -4221,6 +4263,7 @@
       </c>
       <c r="F147" s="7" t="n"/>
       <c r="G147" s="8" t="n"/>
+      <c r="S147" s="9" t="n"/>
     </row>
     <row r="148">
       <c r="A148" s="5" t="n">
@@ -4247,7 +4290,7 @@
         <f>IF(E148&gt;1,(1.732*D148*F148)/1000,(D148*F148)/1000)</f>
         <v/>
       </c>
-      <c r="S148" t="inlineStr">
+      <c r="S148" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -4267,6 +4310,7 @@
       </c>
       <c r="F149" s="7" t="n"/>
       <c r="G149" s="8" t="n"/>
+      <c r="S149" s="9" t="n"/>
     </row>
     <row r="150">
       <c r="A150" s="5" t="n">
@@ -4282,6 +4326,7 @@
       </c>
       <c r="F150" s="7" t="n"/>
       <c r="G150" s="8" t="n"/>
+      <c r="S150" s="9" t="n"/>
     </row>
     <row r="151">
       <c r="A151" s="5" t="n">
@@ -4308,7 +4353,7 @@
         <f>IF(E151&gt;1,(1.732*D151*F151)/1000,(D151*F151)/1000)</f>
         <v/>
       </c>
-      <c r="S151" t="inlineStr">
+      <c r="S151" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -4328,7 +4373,7 @@
       </c>
       <c r="F152" s="7" t="n"/>
       <c r="G152" s="8" t="n"/>
-      <c r="S152" t="inlineStr">
+      <c r="S152" s="9" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
         </is>
@@ -4350,6 +4395,7 @@
       </c>
       <c r="F153" s="7" t="n"/>
       <c r="G153" s="8" t="n"/>
+      <c r="S153" s="9" t="n"/>
     </row>
     <row r="154">
       <c r="A154" s="5" t="n">
@@ -4365,7 +4411,7 @@
       </c>
       <c r="F154" s="7" t="n"/>
       <c r="G154" s="8" t="n"/>
-      <c r="S154" t="inlineStr">
+      <c r="S154" s="9" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
         </is>
@@ -4385,7 +4431,7 @@
       </c>
       <c r="F155" s="7" t="n"/>
       <c r="G155" s="8" t="n"/>
-      <c r="S155" t="inlineStr">
+      <c r="S155" s="9" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
         </is>
@@ -4416,7 +4462,7 @@
         <f>IF(E156&gt;1,(1.732*D156*F156)/1000,(D156*F156)/1000)</f>
         <v/>
       </c>
-      <c r="S156" t="inlineStr">
+      <c r="S156" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -4438,6 +4484,7 @@
       </c>
       <c r="F157" s="7" t="n"/>
       <c r="G157" s="8" t="n"/>
+      <c r="S157" s="9" t="n"/>
     </row>
     <row r="158">
       <c r="A158" s="5" t="n">
@@ -4455,6 +4502,7 @@
       </c>
       <c r="F158" s="7" t="n"/>
       <c r="G158" s="8" t="n"/>
+      <c r="S158" s="9" t="n"/>
     </row>
     <row r="159">
       <c r="A159" s="5" t="n">
@@ -4470,7 +4518,7 @@
       </c>
       <c r="F159" s="7" t="n"/>
       <c r="G159" s="8" t="n"/>
-      <c r="S159" t="inlineStr">
+      <c r="S159" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -4494,6 +4542,7 @@
       </c>
       <c r="F160" s="7" t="n"/>
       <c r="G160" s="8" t="n"/>
+      <c r="S160" s="9" t="n"/>
     </row>
     <row r="161">
       <c r="A161" s="5" t="n">
@@ -4520,7 +4569,7 @@
         <f>IF(E161&gt;1,(1.732*D161*F161)/1000,(D161*F161)/1000)</f>
         <v/>
       </c>
-      <c r="S161" t="inlineStr">
+      <c r="S161" s="9" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
         </is>
@@ -4540,7 +4589,7 @@
       </c>
       <c r="F162" s="7" t="n"/>
       <c r="G162" s="8" t="n"/>
-      <c r="S162" t="inlineStr">
+      <c r="S162" s="9" t="inlineStr">
         <is>
           <t>BY VENDOR</t>
         </is>
@@ -4560,7 +4609,7 @@
       </c>
       <c r="F163" s="7" t="n"/>
       <c r="G163" s="8" t="n"/>
-      <c r="S163" t="inlineStr">
+      <c r="S163" s="9" t="inlineStr">
         <is>
           <t>BY VENDOR</t>
         </is>
@@ -4580,7 +4629,7 @@
       </c>
       <c r="F164" s="7" t="n"/>
       <c r="G164" s="8" t="n"/>
-      <c r="S164" t="inlineStr">
+      <c r="S164" s="9" t="inlineStr">
         <is>
           <t>BY VENDOR</t>
         </is>
@@ -4602,6 +4651,7 @@
       </c>
       <c r="F165" s="7" t="n"/>
       <c r="G165" s="8" t="n"/>
+      <c r="S165" s="9" t="n"/>
     </row>
     <row r="166">
       <c r="A166" s="5" t="n">
@@ -4617,7 +4667,7 @@
       </c>
       <c r="F166" s="7" t="n"/>
       <c r="G166" s="8" t="n"/>
-      <c r="S166" t="inlineStr">
+      <c r="S166" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #171</t>
         </is>
@@ -4637,7 +4687,7 @@
       </c>
       <c r="F167" s="7" t="n"/>
       <c r="G167" s="8" t="n"/>
-      <c r="S167" t="inlineStr">
+      <c r="S167" s="9" t="inlineStr">
         <is>
           <t>WITH LID AND DOLLY</t>
         </is>
@@ -4659,6 +4709,7 @@
       </c>
       <c r="F168" s="7" t="n"/>
       <c r="G168" s="8" t="n"/>
+      <c r="S168" s="9" t="n"/>
     </row>
     <row r="169">
       <c r="A169" s="5" t="n">
@@ -4676,6 +4727,7 @@
       </c>
       <c r="F169" s="7" t="n"/>
       <c r="G169" s="8" t="n"/>
+      <c r="S169" s="9" t="n"/>
     </row>
     <row r="170">
       <c r="A170" s="5" t="inlineStr">
@@ -4695,43 +4747,45 @@
       </c>
       <c r="F170" s="7" t="n"/>
       <c r="G170" s="8" t="n"/>
+      <c r="S170" s="9" t="n"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr"/>
     </row>
     <row r="172">
-      <c r="A172" s="9" t="inlineStr">
+      <c r="A172" s="10" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="G172" s="10">
+      <c r="G172" s="11">
         <f>SUM(G7:G171)</f>
         <v/>
       </c>
-      <c r="J172" s="10">
+      <c r="J172" s="11">
         <f>SUM(J7:J171)</f>
         <v/>
       </c>
-      <c r="M172" s="10">
+      <c r="M172" s="11">
         <f>SUM(M7:M171)</f>
         <v/>
       </c>
-      <c r="N172" s="10">
+      <c r="N172" s="11">
         <f>SUM(N7:N171)</f>
         <v/>
       </c>
-      <c r="O172" s="10">
+      <c r="O172" s="11">
         <f>SUM(O7:O171)</f>
         <v/>
       </c>
-      <c r="P172" s="10">
+      <c r="P172" s="11">
         <f>SUM(P7:P171)</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="3" fitToHeight="0"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>